--- a/items.xlsx
+++ b/items.xlsx
@@ -5107,156 +5107,309 @@
     <t>猫眼石粉末</t>
   </si>
   <si>
+    <t>item-sjw1.png</t>
+  </si>
+  <si>
     <t>碎铜块</t>
   </si>
   <si>
+    <t>item-sjw2.png</t>
+  </si>
+  <si>
     <t>羊皮纸残骸</t>
   </si>
   <si>
+    <t>item-sjw3.png</t>
+  </si>
+  <si>
     <t>碎木头</t>
   </si>
   <si>
+    <t>item-sjw4.png</t>
+  </si>
+  <si>
     <t>魔力粉末</t>
   </si>
   <si>
+    <t>item-sjw5.png</t>
+  </si>
+  <si>
     <t>破碎布料</t>
   </si>
   <si>
+    <t>item-sjw6.png</t>
+  </si>
+  <si>
     <t>残旧麻绳</t>
   </si>
   <si>
+    <t>item-sjw7.png</t>
+  </si>
+  <si>
     <t>银叶草</t>
   </si>
   <si>
+    <t>item-sjw8.png</t>
+  </si>
+  <si>
     <t>破旧金属</t>
   </si>
   <si>
+    <t>item-sjw9.png</t>
+  </si>
+  <si>
     <t>水晶碎石</t>
   </si>
   <si>
+    <t>item-sjw10.png</t>
+  </si>
+  <si>
     <t>残破战旗</t>
   </si>
   <si>
+    <t>item-sjw11.png</t>
+  </si>
+  <si>
     <t>铁矿石</t>
   </si>
   <si>
+    <t>item-sjg1.png</t>
+  </si>
+  <si>
     <t>绿水晶</t>
   </si>
   <si>
+    <t>item-sjg2.png</t>
+  </si>
+  <si>
     <t>魔法碎块</t>
   </si>
   <si>
+    <t>item-sjg3.png</t>
+  </si>
+  <si>
     <t>羊皮卷轴</t>
   </si>
   <si>
+    <t>item-sjg4.png</t>
+  </si>
+  <si>
     <t>亚麻绳</t>
   </si>
   <si>
+    <t>item-sjg5.png</t>
+  </si>
+  <si>
     <t>木块</t>
   </si>
   <si>
+    <t>item-sjg6.png</t>
+  </si>
+  <si>
     <t>兽皮</t>
   </si>
   <si>
+    <t>item-sjg7.png</t>
+  </si>
+  <si>
     <t>锈蚀金属块</t>
   </si>
   <si>
+    <t>item-sjg8.png</t>
+  </si>
+  <si>
     <t>魔法书残页</t>
   </si>
   <si>
+    <t>item-sjg9.png</t>
+  </si>
+  <si>
     <t>玻璃瓶</t>
   </si>
   <si>
+    <t>item-sjg10.png</t>
+  </si>
+  <si>
     <t>秘银吊坠</t>
   </si>
   <si>
+    <t>item-sjg11.png</t>
+  </si>
+  <si>
     <t>精巧胸针</t>
   </si>
   <si>
+    <t>item-sjb1.png</t>
+  </si>
+  <si>
     <t>天蚕丝</t>
   </si>
   <si>
+    <t>item-sjb2.png</t>
+  </si>
+  <si>
     <t>精钢</t>
   </si>
   <si>
+    <t>item-sjb3.png</t>
+  </si>
+  <si>
     <t>神秘卷轴</t>
   </si>
   <si>
+    <t>item-sjb4.png</t>
+  </si>
+  <si>
     <t>星辰结晶</t>
   </si>
   <si>
+    <t>item-sjb5.png</t>
+  </si>
+  <si>
     <t>魔法宝石</t>
   </si>
   <si>
+    <t>item-sjb6.png</t>
+  </si>
+  <si>
     <t>红衫木</t>
   </si>
   <si>
+    <t>item-sjb7.png</t>
+  </si>
+  <si>
     <t>古树之根</t>
   </si>
   <si>
+    <t>item-sjb8.png</t>
+  </si>
+  <si>
     <t>火焰花</t>
   </si>
   <si>
+    <t>item-sjb9.png</t>
+  </si>
+  <si>
     <t>魔力金块</t>
   </si>
   <si>
+    <t>item-sjb10.png</t>
+  </si>
+  <si>
     <t>七色宝珠</t>
   </si>
   <si>
+    <t>item-sjb11.png</t>
+  </si>
+  <si>
     <t>神圣之书</t>
   </si>
   <si>
+    <t>item-sjb12.png</t>
+  </si>
+  <si>
     <t>光之羽毛</t>
   </si>
   <si>
+    <t>item-sjb13.png</t>
+  </si>
+  <si>
     <t>帝王石</t>
   </si>
   <si>
+    <t>item-sjp1.png</t>
+  </si>
+  <si>
     <t>辉煌勋章</t>
   </si>
   <si>
+    <t>item-sjp2.png</t>
+  </si>
+  <si>
     <t>王者之书</t>
   </si>
   <si>
+    <t>item-sjp3.png</t>
+  </si>
+  <si>
     <t>君主皇冠</t>
   </si>
   <si>
+    <t>item-sjp4.png</t>
+  </si>
+  <si>
     <t>封印魔盒</t>
   </si>
   <si>
+    <t>item-sjp5.png</t>
+  </si>
+  <si>
     <t>罪恶之心</t>
   </si>
   <si>
+    <t>item-sjp6.png</t>
+  </si>
+  <si>
     <t>王者印记</t>
   </si>
   <si>
+    <t>item-sjp7.png</t>
+  </si>
+  <si>
     <t>地狱之石</t>
   </si>
   <si>
+    <t>item-sjp8.png</t>
+  </si>
+  <si>
     <t>战争之灵</t>
   </si>
   <si>
+    <t>item-sjp9.png</t>
+  </si>
+  <si>
     <t>灵魂宝石</t>
   </si>
   <si>
+    <t>item-sjp10.png</t>
+  </si>
+  <si>
     <t>神秘缎带</t>
   </si>
   <si>
+    <t>item-sjp11.png</t>
+  </si>
+  <si>
     <t>圣灵头冠</t>
   </si>
   <si>
+    <t>item-sjp12.png</t>
+  </si>
+  <si>
     <t>恶魔之牙</t>
   </si>
   <si>
+    <t>item-sjp13.png</t>
+  </si>
+  <si>
     <t>嗜血利刃</t>
   </si>
   <si>
+    <t>item-sjp14.png</t>
+  </si>
+  <si>
     <t>雷霆宝珠</t>
   </si>
   <si>
+    <t>item-sjp15.png</t>
+  </si>
+  <si>
     <t>魔法精华</t>
   </si>
   <si>
+    <t>item-sjp16.png</t>
+  </si>
+  <si>
     <t>强化石</t>
   </si>
   <si>
@@ -5270,163 +5423,6 @@
   </si>
   <si>
     <t>强化宝珠</t>
-  </si>
-  <si>
-    <t>item-sjw1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item-sjw2.png</t>
-  </si>
-  <si>
-    <t>item-sjw3.png</t>
-  </si>
-  <si>
-    <t>item-sjw4.png</t>
-  </si>
-  <si>
-    <t>item-sjw5.png</t>
-  </si>
-  <si>
-    <t>item-sjw6.png</t>
-  </si>
-  <si>
-    <t>item-sjw7.png</t>
-  </si>
-  <si>
-    <t>item-sjw8.png</t>
-  </si>
-  <si>
-    <t>item-sjw9.png</t>
-  </si>
-  <si>
-    <t>item-sjw10.png</t>
-  </si>
-  <si>
-    <t>item-sjw11.png</t>
-  </si>
-  <si>
-    <t>item-sjg1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item-sjg2.png</t>
-  </si>
-  <si>
-    <t>item-sjg3.png</t>
-  </si>
-  <si>
-    <t>item-sjg4.png</t>
-  </si>
-  <si>
-    <t>item-sjg5.png</t>
-  </si>
-  <si>
-    <t>item-sjg6.png</t>
-  </si>
-  <si>
-    <t>item-sjg7.png</t>
-  </si>
-  <si>
-    <t>item-sjg8.png</t>
-  </si>
-  <si>
-    <t>item-sjg9.png</t>
-  </si>
-  <si>
-    <t>item-sjg10.png</t>
-  </si>
-  <si>
-    <t>item-sjg11.png</t>
-  </si>
-  <si>
-    <t>item-sjb1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item-sjb2.png</t>
-  </si>
-  <si>
-    <t>item-sjb3.png</t>
-  </si>
-  <si>
-    <t>item-sjb4.png</t>
-  </si>
-  <si>
-    <t>item-sjb5.png</t>
-  </si>
-  <si>
-    <t>item-sjb6.png</t>
-  </si>
-  <si>
-    <t>item-sjb7.png</t>
-  </si>
-  <si>
-    <t>item-sjb8.png</t>
-  </si>
-  <si>
-    <t>item-sjb9.png</t>
-  </si>
-  <si>
-    <t>item-sjb10.png</t>
-  </si>
-  <si>
-    <t>item-sjb11.png</t>
-  </si>
-  <si>
-    <t>item-sjb12.png</t>
-  </si>
-  <si>
-    <t>item-sjb13.png</t>
-  </si>
-  <si>
-    <t>item-sjp1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item-sjp2.png</t>
-  </si>
-  <si>
-    <t>item-sjp3.png</t>
-  </si>
-  <si>
-    <t>item-sjp4.png</t>
-  </si>
-  <si>
-    <t>item-sjp5.png</t>
-  </si>
-  <si>
-    <t>item-sjp6.png</t>
-  </si>
-  <si>
-    <t>item-sjp7.png</t>
-  </si>
-  <si>
-    <t>item-sjp8.png</t>
-  </si>
-  <si>
-    <t>item-sjp9.png</t>
-  </si>
-  <si>
-    <t>item-sjp10.png</t>
-  </si>
-  <si>
-    <t>item-sjp11.png</t>
-  </si>
-  <si>
-    <t>item-sjp12.png</t>
-  </si>
-  <si>
-    <t>item-sjp13.png</t>
-  </si>
-  <si>
-    <t>item-sjp14.png</t>
-  </si>
-  <si>
-    <t>item-sjp15.png</t>
-  </si>
-  <si>
-    <t>item-sjp16.png</t>
   </si>
 </sst>
 </file>
@@ -5775,13 +5771,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A824" workbookViewId="0">
-      <selection activeCell="E866" sqref="E866"/>
+    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
+      <selection activeCell="J544" sqref="J544:J560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.15">
@@ -61069,9 +61067,7 @@
       <c r="I541" s="1">
         <v>450</v>
       </c>
-      <c r="J541" s="1">
-        <v>2</v>
-      </c>
+      <c r="J541" s="1"/>
       <c r="K541" s="1"/>
       <c r="L541" s="1"/>
       <c r="M541" s="1"/>
@@ -61156,9 +61152,7 @@
       <c r="I542" s="1">
         <v>800</v>
       </c>
-      <c r="J542" s="1">
-        <v>2</v>
-      </c>
+      <c r="J542" s="1"/>
       <c r="K542" s="1"/>
       <c r="L542" s="1"/>
       <c r="M542" s="1"/>
@@ -61241,9 +61235,7 @@
       <c r="I543" s="1">
         <v>300</v>
       </c>
-      <c r="J543" s="1">
-        <v>2</v>
-      </c>
+      <c r="J543" s="1"/>
       <c r="K543" s="1"/>
       <c r="L543" s="1"/>
       <c r="M543" s="1"/>
@@ -61316,9 +61308,7 @@
       </c>
       <c r="H544" s="1"/>
       <c r="I544" s="1"/>
-      <c r="J544" s="1">
-        <v>2</v>
-      </c>
+      <c r="J544" s="1"/>
       <c r="K544" s="1"/>
       <c r="L544" s="1"/>
       <c r="M544" s="1"/>
@@ -61401,9 +61391,7 @@
       </c>
       <c r="H545" s="1"/>
       <c r="I545" s="1"/>
-      <c r="J545" s="1">
-        <v>2</v>
-      </c>
+      <c r="J545" s="1"/>
       <c r="K545" s="1"/>
       <c r="L545" s="1"/>
       <c r="M545" s="1"/>
@@ -61480,9 +61468,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
       <c r="I546" s="1"/>
-      <c r="J546" s="1">
-        <v>2</v>
-      </c>
+      <c r="J546" s="1"/>
       <c r="K546" s="1"/>
       <c r="L546" s="1"/>
       <c r="M546" s="1"/>
@@ -61563,9 +61549,7 @@
       </c>
       <c r="H547" s="1"/>
       <c r="I547" s="1"/>
-      <c r="J547" s="1">
-        <v>2</v>
-      </c>
+      <c r="J547" s="1"/>
       <c r="K547" s="1"/>
       <c r="L547" s="1"/>
       <c r="M547" s="1"/>
@@ -61646,9 +61630,7 @@
       </c>
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
-      <c r="J548" s="1">
-        <v>2</v>
-      </c>
+      <c r="J548" s="1"/>
       <c r="K548" s="1"/>
       <c r="L548" s="1"/>
       <c r="M548" s="1"/>
@@ -61729,9 +61711,7 @@
       </c>
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
-      <c r="J549" s="1">
-        <v>2</v>
-      </c>
+      <c r="J549" s="1"/>
       <c r="K549" s="1"/>
       <c r="L549" s="1"/>
       <c r="M549" s="1"/>
@@ -61812,9 +61792,7 @@
       </c>
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
-      <c r="J550" s="1">
-        <v>2</v>
-      </c>
+      <c r="J550" s="1"/>
       <c r="K550" s="1"/>
       <c r="L550" s="1"/>
       <c r="M550" s="1"/>
@@ -61895,9 +61873,7 @@
       </c>
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
-      <c r="J551" s="1">
-        <v>2</v>
-      </c>
+      <c r="J551" s="1"/>
       <c r="K551" s="1"/>
       <c r="L551" s="1"/>
       <c r="M551" s="1"/>
@@ -61978,9 +61954,7 @@
       </c>
       <c r="H552" s="1"/>
       <c r="I552" s="1"/>
-      <c r="J552" s="1">
-        <v>2</v>
-      </c>
+      <c r="J552" s="1"/>
       <c r="K552" s="1"/>
       <c r="L552" s="1"/>
       <c r="M552" s="1"/>
@@ -62063,9 +62037,7 @@
       </c>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
-      <c r="J553" s="1">
-        <v>2</v>
-      </c>
+      <c r="J553" s="1"/>
       <c r="K553" s="1"/>
       <c r="L553" s="1"/>
       <c r="M553" s="1"/>
@@ -62148,9 +62120,7 @@
       <c r="I554" s="1">
         <v>1500</v>
       </c>
-      <c r="J554" s="1">
-        <v>2</v>
-      </c>
+      <c r="J554" s="1"/>
       <c r="K554" s="1"/>
       <c r="L554" s="1"/>
       <c r="M554" s="1"/>
@@ -62241,9 +62211,7 @@
       <c r="I555" s="1">
         <v>500</v>
       </c>
-      <c r="J555" s="1">
-        <v>2</v>
-      </c>
+      <c r="J555" s="1"/>
       <c r="K555" s="1"/>
       <c r="L555" s="1"/>
       <c r="M555" s="1" t="s">
@@ -62332,9 +62300,7 @@
       </c>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
-      <c r="J556" s="1">
-        <v>2</v>
-      </c>
+      <c r="J556" s="1"/>
       <c r="K556" s="1"/>
       <c r="L556" s="1"/>
       <c r="M556" s="1"/>
@@ -62415,9 +62381,7 @@
       </c>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
-      <c r="J557" s="1">
-        <v>2</v>
-      </c>
+      <c r="J557" s="1"/>
       <c r="K557" s="1"/>
       <c r="L557" s="1"/>
       <c r="M557" s="1"/>
@@ -62498,9 +62462,7 @@
       </c>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
-      <c r="J558" s="1">
-        <v>2</v>
-      </c>
+      <c r="J558" s="1"/>
       <c r="K558" s="1"/>
       <c r="L558" s="1"/>
       <c r="M558" s="1"/>
@@ -62581,9 +62543,7 @@
       </c>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
-      <c r="J559" s="1">
-        <v>2</v>
-      </c>
+      <c r="J559" s="1"/>
       <c r="K559" s="1"/>
       <c r="L559" s="1"/>
       <c r="M559" s="1"/>
@@ -62664,9 +62624,7 @@
       </c>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
-      <c r="J560" s="1">
-        <v>2</v>
-      </c>
+      <c r="J560" s="1"/>
       <c r="K560" s="1"/>
       <c r="L560" s="1"/>
       <c r="M560" s="1"/>
@@ -86640,7 +86598,7 @@
         <v>1696</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>1752</v>
+        <v>1697</v>
       </c>
       <c r="E805" s="1">
         <v>2</v>
@@ -86714,10 +86672,10 @@
         <v>803</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>1753</v>
+        <v>1699</v>
       </c>
       <c r="E806" s="1">
         <v>2</v>
@@ -86791,10 +86749,10 @@
         <v>804</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>1754</v>
+        <v>1701</v>
       </c>
       <c r="E807" s="1">
         <v>2</v>
@@ -86868,10 +86826,10 @@
         <v>805</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>1755</v>
+        <v>1703</v>
       </c>
       <c r="E808" s="1">
         <v>2</v>
@@ -86945,10 +86903,10 @@
         <v>806</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>1756</v>
+        <v>1705</v>
       </c>
       <c r="E809" s="1">
         <v>2</v>
@@ -87022,10 +86980,10 @@
         <v>807</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>1757</v>
+        <v>1707</v>
       </c>
       <c r="E810" s="1">
         <v>2</v>
@@ -87099,10 +87057,10 @@
         <v>808</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>1758</v>
+        <v>1709</v>
       </c>
       <c r="E811" s="1">
         <v>2</v>
@@ -87176,10 +87134,10 @@
         <v>809</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>1703</v>
+        <v>1710</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>1759</v>
+        <v>1711</v>
       </c>
       <c r="E812" s="1">
         <v>2</v>
@@ -87253,10 +87211,10 @@
         <v>810</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>1760</v>
+        <v>1713</v>
       </c>
       <c r="E813" s="1">
         <v>2</v>
@@ -87330,10 +87288,10 @@
         <v>811</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>1705</v>
+        <v>1714</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>1761</v>
+        <v>1715</v>
       </c>
       <c r="E814" s="1">
         <v>2</v>
@@ -87407,10 +87365,10 @@
         <v>812</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>1762</v>
+        <v>1717</v>
       </c>
       <c r="E815" s="1">
         <v>2</v>
@@ -87484,10 +87442,10 @@
         <v>813</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>1707</v>
+        <v>1718</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>1763</v>
+        <v>1719</v>
       </c>
       <c r="E816" s="1">
         <v>2</v>
@@ -87561,10 +87519,10 @@
         <v>814</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>1708</v>
+        <v>1720</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>1764</v>
+        <v>1721</v>
       </c>
       <c r="E817" s="1">
         <v>2</v>
@@ -87638,10 +87596,10 @@
         <v>815</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>1709</v>
+        <v>1722</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>1765</v>
+        <v>1723</v>
       </c>
       <c r="E818" s="1">
         <v>2</v>
@@ -87715,10 +87673,10 @@
         <v>816</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>1710</v>
+        <v>1724</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>1766</v>
+        <v>1725</v>
       </c>
       <c r="E819" s="1">
         <v>2</v>
@@ -87792,10 +87750,10 @@
         <v>817</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>1711</v>
+        <v>1726</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>1767</v>
+        <v>1727</v>
       </c>
       <c r="E820" s="1">
         <v>2</v>
@@ -87869,10 +87827,10 @@
         <v>818</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>1712</v>
+        <v>1728</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>1768</v>
+        <v>1729</v>
       </c>
       <c r="E821" s="1">
         <v>2</v>
@@ -87946,10 +87904,10 @@
         <v>819</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>1713</v>
+        <v>1730</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>1769</v>
+        <v>1731</v>
       </c>
       <c r="E822" s="1">
         <v>2</v>
@@ -88023,10 +87981,10 @@
         <v>820</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>1714</v>
+        <v>1732</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>1770</v>
+        <v>1733</v>
       </c>
       <c r="E823" s="1">
         <v>2</v>
@@ -88100,10 +88058,10 @@
         <v>821</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>1715</v>
+        <v>1734</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>1771</v>
+        <v>1735</v>
       </c>
       <c r="E824" s="1">
         <v>2</v>
@@ -88177,10 +88135,10 @@
         <v>822</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>1772</v>
+        <v>1737</v>
       </c>
       <c r="E825" s="1">
         <v>2</v>
@@ -88254,10 +88212,10 @@
         <v>823</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>1717</v>
+        <v>1738</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>1773</v>
+        <v>1739</v>
       </c>
       <c r="E826" s="1">
         <v>2</v>
@@ -88331,10 +88289,10 @@
         <v>824</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>1718</v>
+        <v>1740</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>1774</v>
+        <v>1741</v>
       </c>
       <c r="E827" s="1">
         <v>2</v>
@@ -88408,10 +88366,10 @@
         <v>825</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>1719</v>
+        <v>1742</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>1775</v>
+        <v>1743</v>
       </c>
       <c r="E828" s="1">
         <v>2</v>
@@ -88485,10 +88443,10 @@
         <v>826</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>1720</v>
+        <v>1744</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>1776</v>
+        <v>1745</v>
       </c>
       <c r="E829" s="1">
         <v>2</v>
@@ -88562,10 +88520,10 @@
         <v>827</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>1721</v>
+        <v>1746</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>1777</v>
+        <v>1747</v>
       </c>
       <c r="E830" s="1">
         <v>2</v>
@@ -88639,10 +88597,10 @@
         <v>828</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>1722</v>
+        <v>1748</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>1778</v>
+        <v>1749</v>
       </c>
       <c r="E831" s="1">
         <v>2</v>
@@ -88716,10 +88674,10 @@
         <v>829</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>1723</v>
+        <v>1750</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>1779</v>
+        <v>1751</v>
       </c>
       <c r="E832" s="1">
         <v>2</v>
@@ -88793,10 +88751,10 @@
         <v>830</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>1724</v>
+        <v>1752</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>1780</v>
+        <v>1753</v>
       </c>
       <c r="E833" s="1">
         <v>2</v>
@@ -88870,10 +88828,10 @@
         <v>831</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>1725</v>
+        <v>1754</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>1781</v>
+        <v>1755</v>
       </c>
       <c r="E834" s="1">
         <v>2</v>
@@ -88947,10 +88905,10 @@
         <v>832</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>1726</v>
+        <v>1756</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>1782</v>
+        <v>1757</v>
       </c>
       <c r="E835" s="1">
         <v>2</v>
@@ -89024,10 +88982,10 @@
         <v>833</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>1727</v>
+        <v>1758</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>1783</v>
+        <v>1759</v>
       </c>
       <c r="E836" s="1">
         <v>2</v>
@@ -89101,10 +89059,10 @@
         <v>834</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>1728</v>
+        <v>1760</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>1784</v>
+        <v>1761</v>
       </c>
       <c r="E837" s="1">
         <v>2</v>
@@ -89178,10 +89136,10 @@
         <v>835</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>1729</v>
+        <v>1762</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>1785</v>
+        <v>1763</v>
       </c>
       <c r="E838" s="1">
         <v>2</v>
@@ -89255,10 +89213,10 @@
         <v>836</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>1730</v>
+        <v>1764</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>1786</v>
+        <v>1765</v>
       </c>
       <c r="E839" s="1">
         <v>2</v>
@@ -89332,10 +89290,10 @@
         <v>837</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>1731</v>
+        <v>1766</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>1787</v>
+        <v>1767</v>
       </c>
       <c r="E840" s="1">
         <v>2</v>
@@ -89409,10 +89367,10 @@
         <v>838</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>1732</v>
+        <v>1768</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>1788</v>
+        <v>1769</v>
       </c>
       <c r="E841" s="1">
         <v>2</v>
@@ -89486,10 +89444,10 @@
         <v>839</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>1733</v>
+        <v>1770</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>1789</v>
+        <v>1771</v>
       </c>
       <c r="E842" s="1">
         <v>2</v>
@@ -89563,10 +89521,10 @@
         <v>840</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>1734</v>
+        <v>1772</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>1790</v>
+        <v>1773</v>
       </c>
       <c r="E843" s="1">
         <v>2</v>
@@ -89640,10 +89598,10 @@
         <v>841</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>1735</v>
+        <v>1774</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>1791</v>
+        <v>1775</v>
       </c>
       <c r="E844" s="1">
         <v>2</v>
@@ -89717,10 +89675,10 @@
         <v>842</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>1736</v>
+        <v>1776</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
       <c r="E845" s="1">
         <v>2</v>
@@ -89794,10 +89752,10 @@
         <v>843</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>1737</v>
+        <v>1778</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
       <c r="E846" s="1">
         <v>2</v>
@@ -89871,10 +89829,10 @@
         <v>844</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>1738</v>
+        <v>1780</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
       <c r="E847" s="1">
         <v>2</v>
@@ -89948,10 +89906,10 @@
         <v>845</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>1739</v>
+        <v>1782</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
       <c r="E848" s="1">
         <v>2</v>
@@ -90025,10 +89983,10 @@
         <v>846</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>1740</v>
+        <v>1784</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
       <c r="E849" s="1">
         <v>2</v>
@@ -90102,10 +90060,10 @@
         <v>847</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>1741</v>
+        <v>1786</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>1797</v>
+        <v>1787</v>
       </c>
       <c r="E850" s="1">
         <v>2</v>
@@ -90179,10 +90137,10 @@
         <v>848</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>1742</v>
+        <v>1788</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="E851" s="1">
         <v>2</v>
@@ -90256,10 +90214,10 @@
         <v>849</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>1743</v>
+        <v>1790</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="E852" s="1">
         <v>2</v>
@@ -90333,10 +90291,10 @@
         <v>850</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>1744</v>
+        <v>1792</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="E853" s="1">
         <v>2</v>
@@ -90410,10 +90368,10 @@
         <v>851</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>1745</v>
+        <v>1794</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="E854" s="1">
         <v>2</v>
@@ -90487,10 +90445,10 @@
         <v>852</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>1746</v>
+        <v>1796</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="E855" s="1">
         <v>2</v>
@@ -90564,7 +90522,7 @@
         <v>853</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>1747</v>
+        <v>1798</v>
       </c>
       <c r="D856" s="1" t="s">
         <v>62</v>
@@ -90641,7 +90599,7 @@
         <v>854</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>1748</v>
+        <v>1799</v>
       </c>
       <c r="D857" s="1" t="s">
         <v>65</v>
@@ -90718,7 +90676,7 @@
         <v>855</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>1749</v>
+        <v>1800</v>
       </c>
       <c r="D858" s="1" t="s">
         <v>68</v>
@@ -90795,7 +90753,7 @@
         <v>856</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>1750</v>
+        <v>1801</v>
       </c>
       <c r="D859" s="1" t="s">
         <v>71</v>
@@ -90872,7 +90830,7 @@
         <v>857</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>1751</v>
+        <v>1802</v>
       </c>
       <c r="D860" s="1" t="s">
         <v>74</v>
@@ -90946,6 +90904,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/items.xlsx
+++ b/items.xlsx
@@ -19,7 +19,7 @@
     <t>#head</t>
   </si>
   <si>
-    <t>exports.data =</t>
+    <t>exports.data = </t>
   </si>
   <si>
     <t>#path</t>
@@ -5429,19 +5429,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <color rgb="000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5467,10 +5460,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fillId="0" borderId="0" fontId="0" numFmtId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5483,7 +5476,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5528,10 +5521,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="MS P????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -5563,10 +5556,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="MS P????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -5769,20 +5762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG860"/>
+  <dimension ref="A1:B860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
-      <selection activeCell="J544" sqref="J544:J560"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="10" max="10" width="22.625" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5790,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5969,7 +5955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -6052,7 +6038,7 @@
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -6135,7 +6121,7 @@
       <c r="BF4" s="1"/>
       <c r="BG4" s="1"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -6218,7 +6204,7 @@
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -6301,7 +6287,7 @@
       <c r="BF6" s="1"/>
       <c r="BG6" s="1"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>4</v>
@@ -6384,7 +6370,7 @@
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>5</v>
@@ -6467,7 +6453,7 @@
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>6</v>
@@ -6542,7 +6528,7 @@
       <c r="BF9" s="1"/>
       <c r="BG9" s="1"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>7</v>
@@ -6617,7 +6603,7 @@
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>8</v>
@@ -6692,7 +6678,7 @@
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>9</v>
@@ -6767,7 +6753,7 @@
       <c r="BF12" s="1"/>
       <c r="BG12" s="1"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>10</v>
@@ -6842,7 +6828,7 @@
       <c r="BF13" s="1"/>
       <c r="BG13" s="1"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>11</v>
@@ -6913,7 +6899,7 @@
       <c r="BF14" s="1"/>
       <c r="BG14" s="1"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>12</v>
@@ -6984,7 +6970,7 @@
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>13</v>
@@ -7055,7 +7041,7 @@
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>14</v>
@@ -7126,7 +7112,7 @@
       <c r="BF17" s="1"/>
       <c r="BG17" s="1"/>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>15</v>
@@ -7201,7 +7187,7 @@
       <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>16</v>
@@ -7272,7 +7258,7 @@
       <c r="BF19" s="1"/>
       <c r="BG19" s="1"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>17</v>
@@ -7343,7 +7329,7 @@
       <c r="BF20" s="1"/>
       <c r="BG20" s="1"/>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>18</v>
@@ -7416,7 +7402,7 @@
       <c r="BF21" s="1"/>
       <c r="BG21" s="1"/>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>19</v>
@@ -7493,7 +7479,7 @@
       <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>20</v>
@@ -7566,7 +7552,7 @@
       <c r="BF23" s="1"/>
       <c r="BG23" s="1"/>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>21</v>
@@ -7639,7 +7625,7 @@
       <c r="BF24" s="1"/>
       <c r="BG24" s="1"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>22</v>
@@ -7712,7 +7698,7 @@
       <c r="BF25" s="1"/>
       <c r="BG25" s="1"/>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>23</v>
@@ -7789,7 +7775,7 @@
       <c r="BF26" s="1"/>
       <c r="BG26" s="1"/>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>24</v>
@@ -7864,7 +7850,7 @@
       <c r="BF27" s="1"/>
       <c r="BG27" s="1"/>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>25</v>
@@ -7945,7 +7931,7 @@
       <c r="BF28" s="1"/>
       <c r="BG28" s="1"/>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="29" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>26</v>
@@ -8028,7 +8014,7 @@
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>27</v>
@@ -8111,7 +8097,7 @@
       <c r="BF30" s="1"/>
       <c r="BG30" s="1"/>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="31" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>28</v>
@@ -8188,7 +8174,7 @@
       <c r="BF31" s="1"/>
       <c r="BG31" s="1"/>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="32" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>29</v>
@@ -8265,7 +8251,7 @@
       <c r="BF32" s="1"/>
       <c r="BG32" s="1"/>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="33" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>30</v>
@@ -8342,7 +8328,7 @@
       <c r="BF33" s="1"/>
       <c r="BG33" s="1"/>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="34" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>31</v>
@@ -8419,7 +8405,7 @@
       <c r="BF34" s="1"/>
       <c r="BG34" s="1"/>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="35" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>32</v>
@@ -8528,7 +8514,7 @@
       <c r="BF35" s="1"/>
       <c r="BG35" s="1"/>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="36" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>33</v>
@@ -8635,7 +8621,7 @@
       <c r="BF36" s="1"/>
       <c r="BG36" s="1"/>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="37" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>34</v>
@@ -8742,7 +8728,7 @@
       <c r="BF37" s="1"/>
       <c r="BG37" s="1"/>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="38" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>35</v>
@@ -8851,7 +8837,7 @@
       <c r="BF38" s="1"/>
       <c r="BG38" s="1"/>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="39" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>36</v>
@@ -8958,7 +8944,7 @@
       <c r="BF39" s="1"/>
       <c r="BG39" s="1"/>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="40" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>37</v>
@@ -9065,7 +9051,7 @@
       <c r="BF40" s="1"/>
       <c r="BG40" s="1"/>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="41" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>38</v>
@@ -9174,7 +9160,7 @@
       <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="42" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>39</v>
@@ -9281,7 +9267,7 @@
       <c r="BF42" s="1"/>
       <c r="BG42" s="1"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="43" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>40</v>
@@ -9390,7 +9376,7 @@
       <c r="BF43" s="1"/>
       <c r="BG43" s="1"/>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="44" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>41</v>
@@ -9495,7 +9481,7 @@
       <c r="BF44" s="1"/>
       <c r="BG44" s="1"/>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>42</v>
@@ -9600,7 +9586,7 @@
       <c r="BF45" s="1"/>
       <c r="BG45" s="1"/>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="46" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>43</v>
@@ -9709,7 +9695,7 @@
       <c r="BF46" s="1"/>
       <c r="BG46" s="1"/>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="47" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>44</v>
@@ -9822,7 +9808,7 @@
       <c r="BF47" s="1"/>
       <c r="BG47" s="1"/>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="48" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>45</v>
@@ -9931,7 +9917,7 @@
       <c r="BF48" s="1"/>
       <c r="BG48" s="1"/>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="49" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>46</v>
@@ -10040,7 +10026,7 @@
       <c r="BF49" s="1"/>
       <c r="BG49" s="1"/>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="50" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>47</v>
@@ -10151,7 +10137,7 @@
       <c r="BF50" s="1"/>
       <c r="BG50" s="1"/>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="51" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>48</v>
@@ -10260,7 +10246,7 @@
       <c r="BF51" s="1"/>
       <c r="BG51" s="1"/>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="52" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>49</v>
@@ -10369,7 +10355,7 @@
       <c r="BF52" s="1"/>
       <c r="BG52" s="1"/>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="53" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>50</v>
@@ -10482,7 +10468,7 @@
       <c r="BF53" s="1"/>
       <c r="BG53" s="1"/>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="54" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>51</v>
@@ -10591,7 +10577,7 @@
       <c r="BF54" s="1"/>
       <c r="BG54" s="1"/>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="55" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>52</v>
@@ -10702,7 +10688,7 @@
       <c r="BF55" s="1"/>
       <c r="BG55" s="1"/>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="56" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>53</v>
@@ -10811,7 +10797,7 @@
       <c r="BF56" s="1"/>
       <c r="BG56" s="1"/>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="57" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>54</v>
@@ -10918,7 +10904,7 @@
       <c r="BF57" s="1"/>
       <c r="BG57" s="1"/>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="58" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>55</v>
@@ -11031,7 +11017,7 @@
       <c r="BF58" s="1"/>
       <c r="BG58" s="1"/>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="59" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>56</v>
@@ -11144,7 +11130,7 @@
       <c r="BF59" s="1"/>
       <c r="BG59" s="1"/>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
         <v>57</v>
@@ -11255,7 +11241,7 @@
       <c r="BF60" s="1"/>
       <c r="BG60" s="1"/>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="61" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>58</v>
@@ -11364,7 +11350,7 @@
       <c r="BF61" s="1"/>
       <c r="BG61" s="1"/>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="62" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>59</v>
@@ -11475,7 +11461,7 @@
       <c r="BF62" s="1"/>
       <c r="BG62" s="1"/>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="63" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>60</v>
@@ -11584,7 +11570,7 @@
       <c r="BF63" s="1"/>
       <c r="BG63" s="1"/>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="64" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>61</v>
@@ -11695,7 +11681,7 @@
       <c r="BF64" s="1"/>
       <c r="BG64" s="1"/>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="65" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
         <v>62</v>
@@ -11808,7 +11794,7 @@
       <c r="BF65" s="1"/>
       <c r="BG65" s="1"/>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="66" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <v>63</v>
@@ -11917,7 +11903,7 @@
       <c r="BF66" s="1"/>
       <c r="BG66" s="1"/>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="67" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
         <v>64</v>
@@ -12028,7 +12014,7 @@
       <c r="BF67" s="1"/>
       <c r="BG67" s="1"/>
     </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="68" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
         <v>65</v>
@@ -12137,7 +12123,7 @@
       <c r="BF68" s="1"/>
       <c r="BG68" s="1"/>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="69" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
         <v>66</v>
@@ -12244,7 +12230,7 @@
       <c r="BF69" s="1"/>
       <c r="BG69" s="1"/>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="70" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
         <v>67</v>
@@ -12357,7 +12343,7 @@
       <c r="BF70" s="1"/>
       <c r="BG70" s="1"/>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="71" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
         <v>68</v>
@@ -12470,7 +12456,7 @@
       <c r="BF71" s="1"/>
       <c r="BG71" s="1"/>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="72" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
         <v>69</v>
@@ -12581,7 +12567,7 @@
       <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="73" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
         <v>70</v>
@@ -12690,7 +12676,7 @@
       <c r="BF73" s="1"/>
       <c r="BG73" s="1"/>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="74" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <v>71</v>
@@ -12801,7 +12787,7 @@
       <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
         <v>72</v>
@@ -12910,7 +12896,7 @@
       <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="76" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
         <v>73</v>
@@ -13021,7 +13007,7 @@
       <c r="BF76" s="1"/>
       <c r="BG76" s="1"/>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="77" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
         <v>74</v>
@@ -13134,7 +13120,7 @@
       <c r="BF77" s="1"/>
       <c r="BG77" s="1"/>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="78" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
         <v>75</v>
@@ -13243,7 +13229,7 @@
       <c r="BF78" s="1"/>
       <c r="BG78" s="1"/>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="79" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
         <v>76</v>
@@ -13354,7 +13340,7 @@
       <c r="BF79" s="1"/>
       <c r="BG79" s="1"/>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="80" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
         <v>77</v>
@@ -13465,7 +13451,7 @@
       <c r="BF80" s="1"/>
       <c r="BG80" s="1"/>
     </row>
-    <row r="81" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="81" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
         <v>78</v>
@@ -13574,7 +13560,7 @@
       <c r="BF81" s="1"/>
       <c r="BG81" s="1"/>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="82" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
         <v>79</v>
@@ -13687,7 +13673,7 @@
       <c r="BF82" s="1"/>
       <c r="BG82" s="1"/>
     </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="83" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1">
         <v>80</v>
@@ -13804,7 +13790,7 @@
       <c r="BF83" s="1"/>
       <c r="BG83" s="1"/>
     </row>
-    <row r="84" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="84" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1">
         <v>81</v>
@@ -13921,7 +13907,7 @@
       <c r="BF84" s="1"/>
       <c r="BG84" s="1"/>
     </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="85" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
         <v>82</v>
@@ -14030,7 +14016,7 @@
       <c r="BF85" s="1"/>
       <c r="BG85" s="1"/>
     </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="86" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1">
         <v>83</v>
@@ -14141,7 +14127,7 @@
       <c r="BF86" s="1"/>
       <c r="BG86" s="1"/>
     </row>
-    <row r="87" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="87" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1">
         <v>84</v>
@@ -14254,7 +14240,7 @@
       <c r="BF87" s="1"/>
       <c r="BG87" s="1"/>
     </row>
-    <row r="88" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="88" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1">
         <v>85</v>
@@ -14371,7 +14357,7 @@
       <c r="BF88" s="1"/>
       <c r="BG88" s="1"/>
     </row>
-    <row r="89" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="89" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1">
         <v>86</v>
@@ -14484,7 +14470,7 @@
       <c r="BF89" s="1"/>
       <c r="BG89" s="1"/>
     </row>
-    <row r="90" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="90" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1">
         <v>87</v>
@@ -14593,7 +14579,7 @@
       <c r="BF90" s="1"/>
       <c r="BG90" s="1"/>
     </row>
-    <row r="91" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="91" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1">
         <v>88</v>
@@ -14704,7 +14690,7 @@
       <c r="BF91" s="1"/>
       <c r="BG91" s="1"/>
     </row>
-    <row r="92" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="92" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1">
         <v>89</v>
@@ -14815,7 +14801,7 @@
       <c r="BF92" s="1"/>
       <c r="BG92" s="1"/>
     </row>
-    <row r="93" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="93" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1">
         <v>90</v>
@@ -14930,7 +14916,7 @@
       <c r="BF93" s="1"/>
       <c r="BG93" s="1"/>
     </row>
-    <row r="94" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="94" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1">
         <v>91</v>
@@ -15043,7 +15029,7 @@
       <c r="BF94" s="1"/>
       <c r="BG94" s="1"/>
     </row>
-    <row r="95" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="95" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1">
         <v>92</v>
@@ -15158,7 +15144,7 @@
       <c r="BF95" s="1"/>
       <c r="BG95" s="1"/>
     </row>
-    <row r="96" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="96" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1">
         <v>93</v>
@@ -15273,7 +15259,7 @@
       <c r="BF96" s="1"/>
       <c r="BG96" s="1"/>
     </row>
-    <row r="97" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="97" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1">
         <v>94</v>
@@ -15380,7 +15366,7 @@
       <c r="BF97" s="1"/>
       <c r="BG97" s="1"/>
     </row>
-    <row r="98" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="98" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1">
         <v>95</v>
@@ -15489,7 +15475,7 @@
       <c r="BF98" s="1"/>
       <c r="BG98" s="1"/>
     </row>
-    <row r="99" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="99" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1">
         <v>96</v>
@@ -15600,7 +15586,7 @@
       <c r="BF99" s="1"/>
       <c r="BG99" s="1"/>
     </row>
-    <row r="100" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="100" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1">
         <v>97</v>
@@ -15715,7 +15701,7 @@
       <c r="BF100" s="1"/>
       <c r="BG100" s="1"/>
     </row>
-    <row r="101" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="101" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
         <v>98</v>
@@ -15826,7 +15812,7 @@
       <c r="BF101" s="1"/>
       <c r="BG101" s="1"/>
     </row>
-    <row r="102" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="102" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1">
         <v>99</v>
@@ -15933,7 +15919,7 @@
       <c r="BF102" s="1"/>
       <c r="BG102" s="1"/>
     </row>
-    <row r="103" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="103" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1">
         <v>100</v>
@@ -16042,7 +16028,7 @@
       <c r="BF103" s="1"/>
       <c r="BG103" s="1"/>
     </row>
-    <row r="104" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="104" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1">
         <v>101</v>
@@ -16151,7 +16137,7 @@
       <c r="BF104" s="1"/>
       <c r="BG104" s="1"/>
     </row>
-    <row r="105" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="105" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1">
         <v>102</v>
@@ -16264,7 +16250,7 @@
       <c r="BF105" s="1"/>
       <c r="BG105" s="1"/>
     </row>
-    <row r="106" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="106" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1">
         <v>103</v>
@@ -16375,7 +16361,7 @@
       <c r="BF106" s="1"/>
       <c r="BG106" s="1"/>
     </row>
-    <row r="107" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="107" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1">
         <v>104</v>
@@ -16486,7 +16472,7 @@
       <c r="BF107" s="1"/>
       <c r="BG107" s="1"/>
     </row>
-    <row r="108" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="108" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1">
         <v>105</v>
@@ -16595,7 +16581,7 @@
       <c r="BF108" s="1"/>
       <c r="BG108" s="1"/>
     </row>
-    <row r="109" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="109" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1">
         <v>106</v>
@@ -16702,7 +16688,7 @@
       <c r="BF109" s="1"/>
       <c r="BG109" s="1"/>
     </row>
-    <row r="110" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="110" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1">
         <v>107</v>
@@ -16811,7 +16797,7 @@
       <c r="BF110" s="1"/>
       <c r="BG110" s="1"/>
     </row>
-    <row r="111" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="111" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1">
         <v>108</v>
@@ -16918,7 +16904,7 @@
       <c r="BF111" s="1"/>
       <c r="BG111" s="1"/>
     </row>
-    <row r="112" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="112" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1">
         <v>109</v>
@@ -17027,7 +17013,7 @@
       <c r="BF112" s="1"/>
       <c r="BG112" s="1"/>
     </row>
-    <row r="113" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="113" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1">
         <v>110</v>
@@ -17138,7 +17124,7 @@
       <c r="BF113" s="1"/>
       <c r="BG113" s="1"/>
     </row>
-    <row r="114" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="114" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1">
         <v>111</v>
@@ -17245,7 +17231,7 @@
       <c r="BF114" s="1"/>
       <c r="BG114" s="1"/>
     </row>
-    <row r="115" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="115" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1">
         <v>112</v>
@@ -17354,7 +17340,7 @@
       <c r="BF115" s="1"/>
       <c r="BG115" s="1"/>
     </row>
-    <row r="116" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="116" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1">
         <v>113</v>
@@ -17461,7 +17447,7 @@
       <c r="BF116" s="1"/>
       <c r="BG116" s="1"/>
     </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="117" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1">
         <v>114</v>
@@ -17566,7 +17552,7 @@
       <c r="BF117" s="1"/>
       <c r="BG117" s="1"/>
     </row>
-    <row r="118" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="118" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1">
         <v>115</v>
@@ -17677,7 +17663,7 @@
       <c r="BF118" s="1"/>
       <c r="BG118" s="1"/>
     </row>
-    <row r="119" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="119" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1">
         <v>116</v>
@@ -17790,7 +17776,7 @@
       <c r="BF119" s="1"/>
       <c r="BG119" s="1"/>
     </row>
-    <row r="120" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="120" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1">
         <v>117</v>
@@ -17901,7 +17887,7 @@
       <c r="BF120" s="1"/>
       <c r="BG120" s="1"/>
     </row>
-    <row r="121" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="121" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1">
         <v>118</v>
@@ -18010,7 +17996,7 @@
       <c r="BF121" s="1"/>
       <c r="BG121" s="1"/>
     </row>
-    <row r="122" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="122" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1">
         <v>119</v>
@@ -18121,7 +18107,7 @@
       <c r="BF122" s="1"/>
       <c r="BG122" s="1"/>
     </row>
-    <row r="123" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="123" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1">
         <v>120</v>
@@ -18230,7 +18216,7 @@
       <c r="BF123" s="1"/>
       <c r="BG123" s="1"/>
     </row>
-    <row r="124" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="124" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1">
         <v>121</v>
@@ -18341,7 +18327,7 @@
       <c r="BF124" s="1"/>
       <c r="BG124" s="1"/>
     </row>
-    <row r="125" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="125" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1">
         <v>122</v>
@@ -18454,7 +18440,7 @@
       <c r="BF125" s="1"/>
       <c r="BG125" s="1"/>
     </row>
-    <row r="126" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="126" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1">
         <v>123</v>
@@ -18563,7 +18549,7 @@
       <c r="BF126" s="1"/>
       <c r="BG126" s="1"/>
     </row>
-    <row r="127" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="127" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1">
         <v>124</v>
@@ -18674,7 +18660,7 @@
       <c r="BF127" s="1"/>
       <c r="BG127" s="1"/>
     </row>
-    <row r="128" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="128" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1">
         <v>125</v>
@@ -18785,7 +18771,7 @@
       <c r="BF128" s="1"/>
       <c r="BG128" s="1"/>
     </row>
-    <row r="129" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="129" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1">
         <v>126</v>
@@ -18894,7 +18880,7 @@
       <c r="BF129" s="1"/>
       <c r="BG129" s="1"/>
     </row>
-    <row r="130" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="130" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1">
         <v>127</v>
@@ -19007,7 +18993,7 @@
       <c r="BF130" s="1"/>
       <c r="BG130" s="1"/>
     </row>
-    <row r="131" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="131" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1">
         <v>128</v>
@@ -19120,7 +19106,7 @@
       <c r="BF131" s="1"/>
       <c r="BG131" s="1"/>
     </row>
-    <row r="132" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="132" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1">
         <v>129</v>
@@ -19231,7 +19217,7 @@
       <c r="BF132" s="1"/>
       <c r="BG132" s="1"/>
     </row>
-    <row r="133" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="133" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1">
         <v>130</v>
@@ -19340,7 +19326,7 @@
       <c r="BF133" s="1"/>
       <c r="BG133" s="1"/>
     </row>
-    <row r="134" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="134" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1">
         <v>131</v>
@@ -19451,7 +19437,7 @@
       <c r="BF134" s="1"/>
       <c r="BG134" s="1"/>
     </row>
-    <row r="135" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="135" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1">
         <v>132</v>
@@ -19560,7 +19546,7 @@
       <c r="BF135" s="1"/>
       <c r="BG135" s="1"/>
     </row>
-    <row r="136" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="136" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1">
         <v>133</v>
@@ -19671,7 +19657,7 @@
       <c r="BF136" s="1"/>
       <c r="BG136" s="1"/>
     </row>
-    <row r="137" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="137" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1">
         <v>134</v>
@@ -19784,7 +19770,7 @@
       <c r="BF137" s="1"/>
       <c r="BG137" s="1"/>
     </row>
-    <row r="138" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="138" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1">
         <v>135</v>
@@ -19893,7 +19879,7 @@
       <c r="BF138" s="1"/>
       <c r="BG138" s="1"/>
     </row>
-    <row r="139" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="139" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1">
         <v>136</v>
@@ -20004,7 +19990,7 @@
       <c r="BF139" s="1"/>
       <c r="BG139" s="1"/>
     </row>
-    <row r="140" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="140" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1">
         <v>137</v>
@@ -20115,7 +20101,7 @@
       <c r="BF140" s="1"/>
       <c r="BG140" s="1"/>
     </row>
-    <row r="141" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="141" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1">
         <v>138</v>
@@ -20224,7 +20210,7 @@
       <c r="BF141" s="1"/>
       <c r="BG141" s="1"/>
     </row>
-    <row r="142" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="142" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1">
         <v>139</v>
@@ -20337,7 +20323,7 @@
       <c r="BF142" s="1"/>
       <c r="BG142" s="1"/>
     </row>
-    <row r="143" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="143" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1">
         <v>140</v>
@@ -20454,7 +20440,7 @@
       <c r="BF143" s="1"/>
       <c r="BG143" s="1"/>
     </row>
-    <row r="144" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="144" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1">
         <v>141</v>
@@ -20571,7 +20557,7 @@
       <c r="BF144" s="1"/>
       <c r="BG144" s="1"/>
     </row>
-    <row r="145" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="145" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1">
         <v>142</v>
@@ -20680,7 +20666,7 @@
       <c r="BF145" s="1"/>
       <c r="BG145" s="1"/>
     </row>
-    <row r="146" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="146" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1">
         <v>143</v>
@@ -20791,7 +20777,7 @@
       <c r="BF146" s="1"/>
       <c r="BG146" s="1"/>
     </row>
-    <row r="147" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="147" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1">
         <v>144</v>
@@ -20904,7 +20890,7 @@
       <c r="BF147" s="1"/>
       <c r="BG147" s="1"/>
     </row>
-    <row r="148" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="148" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1">
         <v>145</v>
@@ -21021,7 +21007,7 @@
       <c r="BF148" s="1"/>
       <c r="BG148" s="1"/>
     </row>
-    <row r="149" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="149" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1">
         <v>146</v>
@@ -21134,7 +21120,7 @@
       <c r="BF149" s="1"/>
       <c r="BG149" s="1"/>
     </row>
-    <row r="150" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="150" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1">
         <v>147</v>
@@ -21243,7 +21229,7 @@
       <c r="BF150" s="1"/>
       <c r="BG150" s="1"/>
     </row>
-    <row r="151" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="151" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1">
         <v>148</v>
@@ -21354,7 +21340,7 @@
       <c r="BF151" s="1"/>
       <c r="BG151" s="1"/>
     </row>
-    <row r="152" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="152" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1">
         <v>149</v>
@@ -21465,7 +21451,7 @@
       <c r="BF152" s="1"/>
       <c r="BG152" s="1"/>
     </row>
-    <row r="153" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="153" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1">
         <v>150</v>
@@ -21580,7 +21566,7 @@
       <c r="BF153" s="1"/>
       <c r="BG153" s="1"/>
     </row>
-    <row r="154" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="154" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1">
         <v>151</v>
@@ -21693,7 +21679,7 @@
       <c r="BF154" s="1"/>
       <c r="BG154" s="1"/>
     </row>
-    <row r="155" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="155" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1">
         <v>152</v>
@@ -21810,7 +21796,7 @@
       <c r="BF155" s="1"/>
       <c r="BG155" s="1"/>
     </row>
-    <row r="156" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="156" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1">
         <v>153</v>
@@ -21927,7 +21913,7 @@
       <c r="BF156" s="1"/>
       <c r="BG156" s="1"/>
     </row>
-    <row r="157" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="157" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1">
         <v>154</v>
@@ -22030,7 +22016,7 @@
       <c r="BF157" s="1"/>
       <c r="BG157" s="1"/>
     </row>
-    <row r="158" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="158" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1">
         <v>155</v>
@@ -22143,7 +22129,7 @@
       <c r="BF158" s="1"/>
       <c r="BG158" s="1"/>
     </row>
-    <row r="159" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="159" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1">
         <v>156</v>
@@ -22256,7 +22242,7 @@
       <c r="BF159" s="1"/>
       <c r="BG159" s="1"/>
     </row>
-    <row r="160" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="160" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1">
         <v>157</v>
@@ -22373,7 +22359,7 @@
       <c r="BF160" s="1"/>
       <c r="BG160" s="1"/>
     </row>
-    <row r="161" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="161" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1">
         <v>158</v>
@@ -22486,7 +22472,7 @@
       <c r="BF161" s="1"/>
       <c r="BG161" s="1"/>
     </row>
-    <row r="162" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="162" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1">
         <v>159</v>
@@ -22595,7 +22581,7 @@
       <c r="BF162" s="1"/>
       <c r="BG162" s="1"/>
     </row>
-    <row r="163" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="163" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1">
         <v>160</v>
@@ -22706,7 +22692,7 @@
       <c r="BF163" s="1"/>
       <c r="BG163" s="1"/>
     </row>
-    <row r="164" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="164" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1">
         <v>161</v>
@@ -22817,7 +22803,7 @@
       <c r="BF164" s="1"/>
       <c r="BG164" s="1"/>
     </row>
-    <row r="165" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="165" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1">
         <v>162</v>
@@ -22932,7 +22918,7 @@
       <c r="BF165" s="1"/>
       <c r="BG165" s="1"/>
     </row>
-    <row r="166" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="166" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1">
         <v>163</v>
@@ -23045,7 +23031,7 @@
       <c r="BF166" s="1"/>
       <c r="BG166" s="1"/>
     </row>
-    <row r="167" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="167" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1">
         <v>164</v>
@@ -23160,7 +23146,7 @@
       <c r="BF167" s="1"/>
       <c r="BG167" s="1"/>
     </row>
-    <row r="168" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="168" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1">
         <v>165</v>
@@ -23275,7 +23261,7 @@
       <c r="BF168" s="1"/>
       <c r="BG168" s="1"/>
     </row>
-    <row r="169" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="169" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1">
         <v>166</v>
@@ -23382,7 +23368,7 @@
       <c r="BF169" s="1"/>
       <c r="BG169" s="1"/>
     </row>
-    <row r="170" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="170" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1">
         <v>167</v>
@@ -23491,7 +23477,7 @@
       <c r="BF170" s="1"/>
       <c r="BG170" s="1"/>
     </row>
-    <row r="171" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="171" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1">
         <v>168</v>
@@ -23602,7 +23588,7 @@
       <c r="BF171" s="1"/>
       <c r="BG171" s="1"/>
     </row>
-    <row r="172" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="172" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1">
         <v>169</v>
@@ -23717,7 +23703,7 @@
       <c r="BF172" s="1"/>
       <c r="BG172" s="1"/>
     </row>
-    <row r="173" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="173" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1">
         <v>170</v>
@@ -23828,7 +23814,7 @@
       <c r="BF173" s="1"/>
       <c r="BG173" s="1"/>
     </row>
-    <row r="174" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="174" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1">
         <v>171</v>
@@ -23935,7 +23921,7 @@
       <c r="BF174" s="1"/>
       <c r="BG174" s="1"/>
     </row>
-    <row r="175" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="175" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1">
         <v>172</v>
@@ -24044,7 +24030,7 @@
       <c r="BF175" s="1"/>
       <c r="BG175" s="1"/>
     </row>
-    <row r="176" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="176" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1">
         <v>173</v>
@@ -24153,7 +24139,7 @@
       <c r="BF176" s="1"/>
       <c r="BG176" s="1"/>
     </row>
-    <row r="177" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="177" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1">
         <v>174</v>
@@ -24266,7 +24252,7 @@
       <c r="BF177" s="1"/>
       <c r="BG177" s="1"/>
     </row>
-    <row r="178" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="178" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1">
         <v>175</v>
@@ -24377,7 +24363,7 @@
       <c r="BF178" s="1"/>
       <c r="BG178" s="1"/>
     </row>
-    <row r="179" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="179" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1">
         <v>176</v>
@@ -24488,7 +24474,7 @@
       <c r="BF179" s="1"/>
       <c r="BG179" s="1"/>
     </row>
-    <row r="180" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="180" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1">
         <v>177</v>
@@ -24597,7 +24583,7 @@
       <c r="BF180" s="1"/>
       <c r="BG180" s="1"/>
     </row>
-    <row r="181" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="181" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1">
         <v>178</v>
@@ -24704,7 +24690,7 @@
       <c r="BF181" s="1"/>
       <c r="BG181" s="1"/>
     </row>
-    <row r="182" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="182" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1">
         <v>179</v>
@@ -24813,7 +24799,7 @@
       <c r="BF182" s="1"/>
       <c r="BG182" s="1"/>
     </row>
-    <row r="183" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="183" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1">
         <v>180</v>
@@ -24920,7 +24906,7 @@
       <c r="BF183" s="1"/>
       <c r="BG183" s="1"/>
     </row>
-    <row r="184" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="184" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1">
         <v>181</v>
@@ -25029,7 +25015,7 @@
       <c r="BF184" s="1"/>
       <c r="BG184" s="1"/>
     </row>
-    <row r="185" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="185" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1">
         <v>182</v>
@@ -25140,7 +25126,7 @@
       <c r="BF185" s="1"/>
       <c r="BG185" s="1"/>
     </row>
-    <row r="186" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="186" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1">
         <v>183</v>
@@ -25247,7 +25233,7 @@
       <c r="BF186" s="1"/>
       <c r="BG186" s="1"/>
     </row>
-    <row r="187" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="187" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1">
         <v>184</v>
@@ -25356,7 +25342,7 @@
       <c r="BF187" s="1"/>
       <c r="BG187" s="1"/>
     </row>
-    <row r="188" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="188" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1">
         <v>185</v>
@@ -25465,7 +25451,7 @@
       <c r="BF188" s="1"/>
       <c r="BG188" s="1"/>
     </row>
-    <row r="189" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="189" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1">
         <v>186</v>
@@ -25572,7 +25558,7 @@
       <c r="BF189" s="1"/>
       <c r="BG189" s="1"/>
     </row>
-    <row r="190" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="190" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1">
         <v>187</v>
@@ -25683,7 +25669,7 @@
       <c r="BF190" s="1"/>
       <c r="BG190" s="1"/>
     </row>
-    <row r="191" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="191" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1">
         <v>188</v>
@@ -25796,7 +25782,7 @@
       <c r="BF191" s="1"/>
       <c r="BG191" s="1"/>
     </row>
-    <row r="192" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="192" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1">
         <v>189</v>
@@ -25907,7 +25893,7 @@
       <c r="BF192" s="1"/>
       <c r="BG192" s="1"/>
     </row>
-    <row r="193" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="193" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1">
         <v>190</v>
@@ -26016,7 +26002,7 @@
       <c r="BF193" s="1"/>
       <c r="BG193" s="1"/>
     </row>
-    <row r="194" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="194" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1">
         <v>191</v>
@@ -26127,7 +26113,7 @@
       <c r="BF194" s="1"/>
       <c r="BG194" s="1"/>
     </row>
-    <row r="195" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="195" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1">
         <v>192</v>
@@ -26236,7 +26222,7 @@
       <c r="BF195" s="1"/>
       <c r="BG195" s="1"/>
     </row>
-    <row r="196" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="196" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1">
         <v>193</v>
@@ -26347,7 +26333,7 @@
       <c r="BF196" s="1"/>
       <c r="BG196" s="1"/>
     </row>
-    <row r="197" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="197" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1">
         <v>194</v>
@@ -26460,7 +26446,7 @@
       <c r="BF197" s="1"/>
       <c r="BG197" s="1"/>
     </row>
-    <row r="198" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="198" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1">
         <v>195</v>
@@ -26569,7 +26555,7 @@
       <c r="BF198" s="1"/>
       <c r="BG198" s="1"/>
     </row>
-    <row r="199" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="199" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1">
         <v>196</v>
@@ -26680,7 +26666,7 @@
       <c r="BF199" s="1"/>
       <c r="BG199" s="1"/>
     </row>
-    <row r="200" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="200" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1">
         <v>197</v>
@@ -26791,7 +26777,7 @@
       <c r="BF200" s="1"/>
       <c r="BG200" s="1"/>
     </row>
-    <row r="201" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="201" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1">
         <v>198</v>
@@ -26900,7 +26886,7 @@
       <c r="BF201" s="1"/>
       <c r="BG201" s="1"/>
     </row>
-    <row r="202" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="202" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1">
         <v>199</v>
@@ -27013,7 +26999,7 @@
       <c r="BF202" s="1"/>
       <c r="BG202" s="1"/>
     </row>
-    <row r="203" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="203" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1">
         <v>200</v>
@@ -27130,7 +27116,7 @@
       <c r="BF203" s="1"/>
       <c r="BG203" s="1"/>
     </row>
-    <row r="204" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="204" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1">
         <v>201</v>
@@ -27247,7 +27233,7 @@
       <c r="BF204" s="1"/>
       <c r="BG204" s="1"/>
     </row>
-    <row r="205" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="205" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1">
         <v>202</v>
@@ -27356,7 +27342,7 @@
       <c r="BF205" s="1"/>
       <c r="BG205" s="1"/>
     </row>
-    <row r="206" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="206" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1">
         <v>203</v>
@@ -27467,7 +27453,7 @@
       <c r="BF206" s="1"/>
       <c r="BG206" s="1"/>
     </row>
-    <row r="207" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="207" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1">
         <v>204</v>
@@ -27580,7 +27566,7 @@
       <c r="BF207" s="1"/>
       <c r="BG207" s="1"/>
     </row>
-    <row r="208" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="208" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1">
         <v>205</v>
@@ -27697,7 +27683,7 @@
       <c r="BF208" s="1"/>
       <c r="BG208" s="1"/>
     </row>
-    <row r="209" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="209" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1">
         <v>206</v>
@@ -27810,7 +27796,7 @@
       <c r="BF209" s="1"/>
       <c r="BG209" s="1"/>
     </row>
-    <row r="210" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="210" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1">
         <v>207</v>
@@ -27919,7 +27905,7 @@
       <c r="BF210" s="1"/>
       <c r="BG210" s="1"/>
     </row>
-    <row r="211" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="211" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1">
         <v>208</v>
@@ -28030,7 +28016,7 @@
       <c r="BF211" s="1"/>
       <c r="BG211" s="1"/>
     </row>
-    <row r="212" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="212" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1">
         <v>209</v>
@@ -28141,7 +28127,7 @@
       <c r="BF212" s="1"/>
       <c r="BG212" s="1"/>
     </row>
-    <row r="213" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="213" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1">
         <v>210</v>
@@ -28256,7 +28242,7 @@
       <c r="BF213" s="1"/>
       <c r="BG213" s="1"/>
     </row>
-    <row r="214" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="214" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1">
         <v>211</v>
@@ -28369,7 +28355,7 @@
       <c r="BF214" s="1"/>
       <c r="BG214" s="1"/>
     </row>
-    <row r="215" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="215" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1">
         <v>212</v>
@@ -28486,7 +28472,7 @@
       <c r="BF215" s="1"/>
       <c r="BG215" s="1"/>
     </row>
-    <row r="216" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="216" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1">
         <v>213</v>
@@ -28603,7 +28589,7 @@
       <c r="BF216" s="1"/>
       <c r="BG216" s="1"/>
     </row>
-    <row r="217" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="217" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1">
         <v>214</v>
@@ -28712,7 +28698,7 @@
       <c r="BF217" s="1"/>
       <c r="BG217" s="1"/>
     </row>
-    <row r="218" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="218" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1">
         <v>215</v>
@@ -28823,7 +28809,7 @@
       <c r="BF218" s="1"/>
       <c r="BG218" s="1"/>
     </row>
-    <row r="219" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="219" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1">
         <v>216</v>
@@ -28936,7 +28922,7 @@
       <c r="BF219" s="1"/>
       <c r="BG219" s="1"/>
     </row>
-    <row r="220" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="220" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1">
         <v>217</v>
@@ -29053,7 +29039,7 @@
       <c r="BF220" s="1"/>
       <c r="BG220" s="1"/>
     </row>
-    <row r="221" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="221" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1">
         <v>218</v>
@@ -29166,7 +29152,7 @@
       <c r="BF221" s="1"/>
       <c r="BG221" s="1"/>
     </row>
-    <row r="222" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="222" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1">
         <v>219</v>
@@ -29275,7 +29261,7 @@
       <c r="BF222" s="1"/>
       <c r="BG222" s="1"/>
     </row>
-    <row r="223" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="223" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1">
         <v>220</v>
@@ -29386,7 +29372,7 @@
       <c r="BF223" s="1"/>
       <c r="BG223" s="1"/>
     </row>
-    <row r="224" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="224" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1">
         <v>221</v>
@@ -29497,7 +29483,7 @@
       <c r="BF224" s="1"/>
       <c r="BG224" s="1"/>
     </row>
-    <row r="225" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="225" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1">
         <v>222</v>
@@ -29612,7 +29598,7 @@
       <c r="BF225" s="1"/>
       <c r="BG225" s="1"/>
     </row>
-    <row r="226" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="226" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1">
         <v>223</v>
@@ -29725,7 +29711,7 @@
       <c r="BF226" s="1"/>
       <c r="BG226" s="1"/>
     </row>
-    <row r="227" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="227" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1">
         <v>224</v>
@@ -29842,7 +29828,7 @@
       <c r="BF227" s="1"/>
       <c r="BG227" s="1"/>
     </row>
-    <row r="228" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="228" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1">
         <v>225</v>
@@ -29959,7 +29945,7 @@
       <c r="BF228" s="1"/>
       <c r="BG228" s="1"/>
     </row>
-    <row r="229" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="229" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1">
         <v>226</v>
@@ -30068,7 +30054,7 @@
       <c r="BF229" s="1"/>
       <c r="BG229" s="1"/>
     </row>
-    <row r="230" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="230" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1">
         <v>227</v>
@@ -30179,7 +30165,7 @@
       <c r="BF230" s="1"/>
       <c r="BG230" s="1"/>
     </row>
-    <row r="231" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="231" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1">
         <v>228</v>
@@ -30292,7 +30278,7 @@
       <c r="BF231" s="1"/>
       <c r="BG231" s="1"/>
     </row>
-    <row r="232" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="232" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1">
         <v>229</v>
@@ -30409,7 +30395,7 @@
       <c r="BF232" s="1"/>
       <c r="BG232" s="1"/>
     </row>
-    <row r="233" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="233" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1">
         <v>230</v>
@@ -30522,7 +30508,7 @@
       <c r="BF233" s="1"/>
       <c r="BG233" s="1"/>
     </row>
-    <row r="234" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="234" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1">
         <v>231</v>
@@ -30631,7 +30617,7 @@
       <c r="BF234" s="1"/>
       <c r="BG234" s="1"/>
     </row>
-    <row r="235" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="235" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1">
         <v>232</v>
@@ -30742,7 +30728,7 @@
       <c r="BF235" s="1"/>
       <c r="BG235" s="1"/>
     </row>
-    <row r="236" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="236" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1">
         <v>233</v>
@@ -30853,7 +30839,7 @@
       <c r="BF236" s="1"/>
       <c r="BG236" s="1"/>
     </row>
-    <row r="237" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="237" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1">
         <v>234</v>
@@ -30968,7 +30954,7 @@
       <c r="BF237" s="1"/>
       <c r="BG237" s="1"/>
     </row>
-    <row r="238" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="238" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1">
         <v>235</v>
@@ -31081,7 +31067,7 @@
       <c r="BF238" s="1"/>
       <c r="BG238" s="1"/>
     </row>
-    <row r="239" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="239" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1">
         <v>236</v>
@@ -31196,7 +31182,7 @@
       <c r="BF239" s="1"/>
       <c r="BG239" s="1"/>
     </row>
-    <row r="240" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="240" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1">
         <v>237</v>
@@ -31311,7 +31297,7 @@
       <c r="BF240" s="1"/>
       <c r="BG240" s="1"/>
     </row>
-    <row r="241" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="241" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1">
         <v>238</v>
@@ -31418,7 +31404,7 @@
       <c r="BF241" s="1"/>
       <c r="BG241" s="1"/>
     </row>
-    <row r="242" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="242" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1">
         <v>239</v>
@@ -31527,7 +31513,7 @@
       <c r="BF242" s="1"/>
       <c r="BG242" s="1"/>
     </row>
-    <row r="243" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="243" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1">
         <v>240</v>
@@ -31638,7 +31624,7 @@
       <c r="BF243" s="1"/>
       <c r="BG243" s="1"/>
     </row>
-    <row r="244" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="244" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1">
         <v>241</v>
@@ -31753,7 +31739,7 @@
       <c r="BF244" s="1"/>
       <c r="BG244" s="1"/>
     </row>
-    <row r="245" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="245" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1">
         <v>242</v>
@@ -31864,7 +31850,7 @@
       <c r="BF245" s="1"/>
       <c r="BG245" s="1"/>
     </row>
-    <row r="246" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="246" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1">
         <v>243</v>
@@ -31971,7 +31957,7 @@
       <c r="BF246" s="1"/>
       <c r="BG246" s="1"/>
     </row>
-    <row r="247" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="247" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1">
         <v>244</v>
@@ -32080,7 +32066,7 @@
       <c r="BF247" s="1"/>
       <c r="BG247" s="1"/>
     </row>
-    <row r="248" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="248" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1">
         <v>245</v>
@@ -32189,7 +32175,7 @@
       <c r="BF248" s="1"/>
       <c r="BG248" s="1"/>
     </row>
-    <row r="249" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="249" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1">
         <v>246</v>
@@ -32296,7 +32282,7 @@
       <c r="BF249" s="1"/>
       <c r="BG249" s="1"/>
     </row>
-    <row r="250" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="250" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1">
         <v>247</v>
@@ -32407,7 +32393,7 @@
       <c r="BF250" s="1"/>
       <c r="BG250" s="1"/>
     </row>
-    <row r="251" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="251" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1">
         <v>248</v>
@@ -32518,7 +32504,7 @@
       <c r="BF251" s="1"/>
       <c r="BG251" s="1"/>
     </row>
-    <row r="252" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="252" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1">
         <v>249</v>
@@ -32627,7 +32613,7 @@
       <c r="BF252" s="1"/>
       <c r="BG252" s="1"/>
     </row>
-    <row r="253" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="253" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1">
         <v>250</v>
@@ -32734,7 +32720,7 @@
       <c r="BF253" s="1"/>
       <c r="BG253" s="1"/>
     </row>
-    <row r="254" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="254" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1">
         <v>251</v>
@@ -32843,7 +32829,7 @@
       <c r="BF254" s="1"/>
       <c r="BG254" s="1"/>
     </row>
-    <row r="255" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="255" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1">
         <v>252</v>
@@ -32950,7 +32936,7 @@
       <c r="BF255" s="1"/>
       <c r="BG255" s="1"/>
     </row>
-    <row r="256" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="256" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1">
         <v>253</v>
@@ -33059,7 +33045,7 @@
       <c r="BF256" s="1"/>
       <c r="BG256" s="1"/>
     </row>
-    <row r="257" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="257" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1">
         <v>254</v>
@@ -33170,7 +33156,7 @@
       <c r="BF257" s="1"/>
       <c r="BG257" s="1"/>
     </row>
-    <row r="258" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="258" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1">
         <v>255</v>
@@ -33277,7 +33263,7 @@
       <c r="BF258" s="1"/>
       <c r="BG258" s="1"/>
     </row>
-    <row r="259" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="259" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1">
         <v>256</v>
@@ -33386,7 +33372,7 @@
       <c r="BF259" s="1"/>
       <c r="BG259" s="1"/>
     </row>
-    <row r="260" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="260" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1">
         <v>257</v>
@@ -33495,7 +33481,7 @@
       <c r="BF260" s="1"/>
       <c r="BG260" s="1"/>
     </row>
-    <row r="261" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="261" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1">
         <v>258</v>
@@ -33602,7 +33588,7 @@
       <c r="BF261" s="1"/>
       <c r="BG261" s="1"/>
     </row>
-    <row r="262" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="262" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1">
         <v>259</v>
@@ -33713,7 +33699,7 @@
       <c r="BF262" s="1"/>
       <c r="BG262" s="1"/>
     </row>
-    <row r="263" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="263" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1">
         <v>260</v>
@@ -33830,7 +33816,7 @@
       <c r="BF263" s="1"/>
       <c r="BG263" s="1"/>
     </row>
-    <row r="264" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="264" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1">
         <v>261</v>
@@ -33947,7 +33933,7 @@
       <c r="BF264" s="1"/>
       <c r="BG264" s="1"/>
     </row>
-    <row r="265" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="265" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1">
         <v>262</v>
@@ -34056,7 +34042,7 @@
       <c r="BF265" s="1"/>
       <c r="BG265" s="1"/>
     </row>
-    <row r="266" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="266" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1">
         <v>263</v>
@@ -34167,7 +34153,7 @@
       <c r="BF266" s="1"/>
       <c r="BG266" s="1"/>
     </row>
-    <row r="267" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="267" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1">
         <v>264</v>
@@ -34280,7 +34266,7 @@
       <c r="BF267" s="1"/>
       <c r="BG267" s="1"/>
     </row>
-    <row r="268" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="268" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1">
         <v>265</v>
@@ -34397,7 +34383,7 @@
       <c r="BF268" s="1"/>
       <c r="BG268" s="1"/>
     </row>
-    <row r="269" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="269" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1">
         <v>266</v>
@@ -34510,7 +34496,7 @@
       <c r="BF269" s="1"/>
       <c r="BG269" s="1"/>
     </row>
-    <row r="270" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="270" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1">
         <v>267</v>
@@ -34619,7 +34605,7 @@
       <c r="BF270" s="1"/>
       <c r="BG270" s="1"/>
     </row>
-    <row r="271" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="271" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1">
         <v>268</v>
@@ -34730,7 +34716,7 @@
       <c r="BF271" s="1"/>
       <c r="BG271" s="1"/>
     </row>
-    <row r="272" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="272" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1">
         <v>269</v>
@@ -34841,7 +34827,7 @@
       <c r="BF272" s="1"/>
       <c r="BG272" s="1"/>
     </row>
-    <row r="273" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="273" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1">
         <v>270</v>
@@ -34956,7 +34942,7 @@
       <c r="BF273" s="1"/>
       <c r="BG273" s="1"/>
     </row>
-    <row r="274" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="274" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1">
         <v>271</v>
@@ -35069,7 +35055,7 @@
       <c r="BF274" s="1"/>
       <c r="BG274" s="1"/>
     </row>
-    <row r="275" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="275" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1">
         <v>272</v>
@@ -35186,7 +35172,7 @@
       <c r="BF275" s="1"/>
       <c r="BG275" s="1"/>
     </row>
-    <row r="276" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="276" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1">
         <v>273</v>
@@ -35303,7 +35289,7 @@
       <c r="BF276" s="1"/>
       <c r="BG276" s="1"/>
     </row>
-    <row r="277" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="277" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1">
         <v>274</v>
@@ -35412,7 +35398,7 @@
       <c r="BF277" s="1"/>
       <c r="BG277" s="1"/>
     </row>
-    <row r="278" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="278" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1">
         <v>275</v>
@@ -35523,7 +35509,7 @@
       <c r="BF278" s="1"/>
       <c r="BG278" s="1"/>
     </row>
-    <row r="279" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="279" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1">
         <v>276</v>
@@ -35636,7 +35622,7 @@
       <c r="BF279" s="1"/>
       <c r="BG279" s="1"/>
     </row>
-    <row r="280" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="280" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1">
         <v>277</v>
@@ -35753,7 +35739,7 @@
       <c r="BF280" s="1"/>
       <c r="BG280" s="1"/>
     </row>
-    <row r="281" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="281" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1">
         <v>278</v>
@@ -35866,7 +35852,7 @@
       <c r="BF281" s="1"/>
       <c r="BG281" s="1"/>
     </row>
-    <row r="282" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="282" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1">
         <v>279</v>
@@ -35975,7 +35961,7 @@
       <c r="BF282" s="1"/>
       <c r="BG282" s="1"/>
     </row>
-    <row r="283" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="283" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1">
         <v>280</v>
@@ -36086,7 +36072,7 @@
       <c r="BF283" s="1"/>
       <c r="BG283" s="1"/>
     </row>
-    <row r="284" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="284" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1">
         <v>281</v>
@@ -36197,7 +36183,7 @@
       <c r="BF284" s="1"/>
       <c r="BG284" s="1"/>
     </row>
-    <row r="285" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="285" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1">
         <v>282</v>
@@ -36312,7 +36298,7 @@
       <c r="BF285" s="1"/>
       <c r="BG285" s="1"/>
     </row>
-    <row r="286" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="286" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1">
         <v>283</v>
@@ -36425,7 +36411,7 @@
       <c r="BF286" s="1"/>
       <c r="BG286" s="1"/>
     </row>
-    <row r="287" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="287" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1">
         <v>284</v>
@@ -36542,7 +36528,7 @@
       <c r="BF287" s="1"/>
       <c r="BG287" s="1"/>
     </row>
-    <row r="288" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="288" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1">
         <v>285</v>
@@ -36659,7 +36645,7 @@
       <c r="BF288" s="1"/>
       <c r="BG288" s="1"/>
     </row>
-    <row r="289" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="289" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1">
         <v>286</v>
@@ -36768,7 +36754,7 @@
       <c r="BF289" s="1"/>
       <c r="BG289" s="1"/>
     </row>
-    <row r="290" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="290" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1">
         <v>287</v>
@@ -36879,7 +36865,7 @@
       <c r="BF290" s="1"/>
       <c r="BG290" s="1"/>
     </row>
-    <row r="291" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="291" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1">
         <v>288</v>
@@ -36992,7 +36978,7 @@
       <c r="BF291" s="1"/>
       <c r="BG291" s="1"/>
     </row>
-    <row r="292" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="292" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1">
         <v>289</v>
@@ -37109,7 +37095,7 @@
       <c r="BF292" s="1"/>
       <c r="BG292" s="1"/>
     </row>
-    <row r="293" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="293" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1">
         <v>290</v>
@@ -37222,7 +37208,7 @@
       <c r="BF293" s="1"/>
       <c r="BG293" s="1"/>
     </row>
-    <row r="294" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="294" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1">
         <v>291</v>
@@ -37331,7 +37317,7 @@
       <c r="BF294" s="1"/>
       <c r="BG294" s="1"/>
     </row>
-    <row r="295" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="295" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1">
         <v>292</v>
@@ -37442,7 +37428,7 @@
       <c r="BF295" s="1"/>
       <c r="BG295" s="1"/>
     </row>
-    <row r="296" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="296" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1">
         <v>293</v>
@@ -37553,7 +37539,7 @@
       <c r="BF296" s="1"/>
       <c r="BG296" s="1"/>
     </row>
-    <row r="297" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="297" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1">
         <v>294</v>
@@ -37668,7 +37654,7 @@
       <c r="BF297" s="1"/>
       <c r="BG297" s="1"/>
     </row>
-    <row r="298" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="298" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1">
         <v>295</v>
@@ -37781,7 +37767,7 @@
       <c r="BF298" s="1"/>
       <c r="BG298" s="1"/>
     </row>
-    <row r="299" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="299" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1">
         <v>296</v>
@@ -37898,7 +37884,7 @@
       <c r="BF299" s="1"/>
       <c r="BG299" s="1"/>
     </row>
-    <row r="300" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="300" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1">
         <v>297</v>
@@ -38015,7 +38001,7 @@
       <c r="BF300" s="1"/>
       <c r="BG300" s="1"/>
     </row>
-    <row r="301" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="301" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1">
         <v>298</v>
@@ -38124,7 +38110,7 @@
       <c r="BF301" s="1"/>
       <c r="BG301" s="1"/>
     </row>
-    <row r="302" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="302" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1">
         <v>299</v>
@@ -38235,7 +38221,7 @@
       <c r="BF302" s="1"/>
       <c r="BG302" s="1"/>
     </row>
-    <row r="303" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="303" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1">
         <v>300</v>
@@ -38348,7 +38334,7 @@
       <c r="BF303" s="1"/>
       <c r="BG303" s="1"/>
     </row>
-    <row r="304" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="304" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1">
         <v>301</v>
@@ -38465,7 +38451,7 @@
       <c r="BF304" s="1"/>
       <c r="BG304" s="1"/>
     </row>
-    <row r="305" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="305" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1">
         <v>302</v>
@@ -38578,7 +38564,7 @@
       <c r="BF305" s="1"/>
       <c r="BG305" s="1"/>
     </row>
-    <row r="306" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="306" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1">
         <v>303</v>
@@ -38687,7 +38673,7 @@
       <c r="BF306" s="1"/>
       <c r="BG306" s="1"/>
     </row>
-    <row r="307" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="307" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1">
         <v>304</v>
@@ -38798,7 +38784,7 @@
       <c r="BF307" s="1"/>
       <c r="BG307" s="1"/>
     </row>
-    <row r="308" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="308" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1">
         <v>305</v>
@@ -38909,7 +38895,7 @@
       <c r="BF308" s="1"/>
       <c r="BG308" s="1"/>
     </row>
-    <row r="309" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="309" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1">
         <v>306</v>
@@ -39018,7 +39004,7 @@
       <c r="BF309" s="1"/>
       <c r="BG309" s="1"/>
     </row>
-    <row r="310" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="310" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1">
         <v>307</v>
@@ -39131,7 +39117,7 @@
       <c r="BF310" s="1"/>
       <c r="BG310" s="1"/>
     </row>
-    <row r="311" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="311" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1">
         <v>308</v>
@@ -39246,7 +39232,7 @@
       <c r="BF311" s="1"/>
       <c r="BG311" s="1"/>
     </row>
-    <row r="312" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="312" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1">
         <v>309</v>
@@ -39361,7 +39347,7 @@
       <c r="BF312" s="1"/>
       <c r="BG312" s="1"/>
     </row>
-    <row r="313" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="313" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1">
         <v>310</v>
@@ -39468,7 +39454,7 @@
       <c r="BF313" s="1"/>
       <c r="BG313" s="1"/>
     </row>
-    <row r="314" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="314" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1">
         <v>311</v>
@@ -39577,7 +39563,7 @@
       <c r="BF314" s="1"/>
       <c r="BG314" s="1"/>
     </row>
-    <row r="315" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="315" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1">
         <v>312</v>
@@ -39688,7 +39674,7 @@
       <c r="BF315" s="1"/>
       <c r="BG315" s="1"/>
     </row>
-    <row r="316" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="316" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1">
         <v>313</v>
@@ -39803,7 +39789,7 @@
       <c r="BF316" s="1"/>
       <c r="BG316" s="1"/>
     </row>
-    <row r="317" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="317" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1">
         <v>314</v>
@@ -39912,7 +39898,7 @@
       <c r="BF317" s="1"/>
       <c r="BG317" s="1"/>
     </row>
-    <row r="318" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="318" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1">
         <v>315</v>
@@ -40019,7 +40005,7 @@
       <c r="BF318" s="1"/>
       <c r="BG318" s="1"/>
     </row>
-    <row r="319" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="319" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1">
         <v>316</v>
@@ -40128,7 +40114,7 @@
       <c r="BF319" s="1"/>
       <c r="BG319" s="1"/>
     </row>
-    <row r="320" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="320" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1">
         <v>317</v>
@@ -40237,7 +40223,7 @@
       <c r="BF320" s="1"/>
       <c r="BG320" s="1"/>
     </row>
-    <row r="321" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="321" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1">
         <v>318</v>
@@ -40344,7 +40330,7 @@
       <c r="BF321" s="1"/>
       <c r="BG321" s="1"/>
     </row>
-    <row r="322" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="322" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1">
         <v>319</v>
@@ -40455,7 +40441,7 @@
       <c r="BF322" s="1"/>
       <c r="BG322" s="1"/>
     </row>
-    <row r="323" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="323" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1">
         <v>320</v>
@@ -40568,7 +40554,7 @@
       <c r="BF323" s="1"/>
       <c r="BG323" s="1"/>
     </row>
-    <row r="324" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="324" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1">
         <v>321</v>
@@ -40681,7 +40667,7 @@
       <c r="BF324" s="1"/>
       <c r="BG324" s="1"/>
     </row>
-    <row r="325" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="325" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1">
         <v>322</v>
@@ -40786,7 +40772,7 @@
       <c r="BF325" s="1"/>
       <c r="BG325" s="1"/>
     </row>
-    <row r="326" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="326" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1">
         <v>323</v>
@@ -40893,7 +40879,7 @@
       <c r="BF326" s="1"/>
       <c r="BG326" s="1"/>
     </row>
-    <row r="327" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="327" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1">
         <v>324</v>
@@ -41002,7 +40988,7 @@
       <c r="BF327" s="1"/>
       <c r="BG327" s="1"/>
     </row>
-    <row r="328" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="328" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1">
         <v>325</v>
@@ -41115,7 +41101,7 @@
       <c r="BF328" s="1"/>
       <c r="BG328" s="1"/>
     </row>
-    <row r="329" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="329" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1">
         <v>326</v>
@@ -41224,7 +41210,7 @@
       <c r="BF329" s="1"/>
       <c r="BG329" s="1"/>
     </row>
-    <row r="330" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="330" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1">
         <v>327</v>
@@ -41329,7 +41315,7 @@
       <c r="BF330" s="1"/>
       <c r="BG330" s="1"/>
     </row>
-    <row r="331" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="331" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1">
         <v>328</v>
@@ -41436,7 +41422,7 @@
       <c r="BF331" s="1"/>
       <c r="BG331" s="1"/>
     </row>
-    <row r="332" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="332" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1">
         <v>329</v>
@@ -41543,7 +41529,7 @@
       <c r="BF332" s="1"/>
       <c r="BG332" s="1"/>
     </row>
-    <row r="333" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="333" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1">
         <v>330</v>
@@ -41654,7 +41640,7 @@
       <c r="BF333" s="1"/>
       <c r="BG333" s="1"/>
     </row>
-    <row r="334" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="334" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1">
         <v>331</v>
@@ -41763,7 +41749,7 @@
       <c r="BF334" s="1"/>
       <c r="BG334" s="1"/>
     </row>
-    <row r="335" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="335" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1">
         <v>332</v>
@@ -41876,7 +41862,7 @@
       <c r="BF335" s="1"/>
       <c r="BG335" s="1"/>
     </row>
-    <row r="336" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="336" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1">
         <v>333</v>
@@ -41989,7 +41975,7 @@
       <c r="BF336" s="1"/>
       <c r="BG336" s="1"/>
     </row>
-    <row r="337" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="337" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1">
         <v>334</v>
@@ -42094,7 +42080,7 @@
       <c r="BF337" s="1"/>
       <c r="BG337" s="1"/>
     </row>
-    <row r="338" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="338" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1">
         <v>335</v>
@@ -42201,7 +42187,7 @@
       <c r="BF338" s="1"/>
       <c r="BG338" s="1"/>
     </row>
-    <row r="339" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="339" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1">
         <v>336</v>
@@ -42310,7 +42296,7 @@
       <c r="BF339" s="1"/>
       <c r="BG339" s="1"/>
     </row>
-    <row r="340" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="340" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1">
         <v>337</v>
@@ -42423,7 +42409,7 @@
       <c r="BF340" s="1"/>
       <c r="BG340" s="1"/>
     </row>
-    <row r="341" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="341" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1">
         <v>338</v>
@@ -42532,7 +42518,7 @@
       <c r="BF341" s="1"/>
       <c r="BG341" s="1"/>
     </row>
-    <row r="342" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="342" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1">
         <v>339</v>
@@ -42637,7 +42623,7 @@
       <c r="BF342" s="1"/>
       <c r="BG342" s="1"/>
     </row>
-    <row r="343" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="343" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1">
         <v>340</v>
@@ -42744,7 +42730,7 @@
       <c r="BF343" s="1"/>
       <c r="BG343" s="1"/>
     </row>
-    <row r="344" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="344" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1">
         <v>341</v>
@@ -42851,7 +42837,7 @@
       <c r="BF344" s="1"/>
       <c r="BG344" s="1"/>
     </row>
-    <row r="345" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="345" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1">
         <v>342</v>
@@ -42962,7 +42948,7 @@
       <c r="BF345" s="1"/>
       <c r="BG345" s="1"/>
     </row>
-    <row r="346" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="346" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1">
         <v>343</v>
@@ -43071,7 +43057,7 @@
       <c r="BF346" s="1"/>
       <c r="BG346" s="1"/>
     </row>
-    <row r="347" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="347" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1">
         <v>344</v>
@@ -43184,7 +43170,7 @@
       <c r="BF347" s="1"/>
       <c r="BG347" s="1"/>
     </row>
-    <row r="348" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="348" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1">
         <v>345</v>
@@ -43297,7 +43283,7 @@
       <c r="BF348" s="1"/>
       <c r="BG348" s="1"/>
     </row>
-    <row r="349" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="349" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1">
         <v>346</v>
@@ -43402,7 +43388,7 @@
       <c r="BF349" s="1"/>
       <c r="BG349" s="1"/>
     </row>
-    <row r="350" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="350" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1">
         <v>347</v>
@@ -43509,7 +43495,7 @@
       <c r="BF350" s="1"/>
       <c r="BG350" s="1"/>
     </row>
-    <row r="351" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="351" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1">
         <v>348</v>
@@ -43618,7 +43604,7 @@
       <c r="BF351" s="1"/>
       <c r="BG351" s="1"/>
     </row>
-    <row r="352" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="352" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1">
         <v>349</v>
@@ -43731,7 +43717,7 @@
       <c r="BF352" s="1"/>
       <c r="BG352" s="1"/>
     </row>
-    <row r="353" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="353" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1">
         <v>350</v>
@@ -43840,7 +43826,7 @@
       <c r="BF353" s="1"/>
       <c r="BG353" s="1"/>
     </row>
-    <row r="354" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="354" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1">
         <v>351</v>
@@ -43945,7 +43931,7 @@
       <c r="BF354" s="1"/>
       <c r="BG354" s="1"/>
     </row>
-    <row r="355" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="355" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1">
         <v>352</v>
@@ -44052,7 +44038,7 @@
       <c r="BF355" s="1"/>
       <c r="BG355" s="1"/>
     </row>
-    <row r="356" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="356" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1">
         <v>353</v>
@@ -44159,7 +44145,7 @@
       <c r="BF356" s="1"/>
       <c r="BG356" s="1"/>
     </row>
-    <row r="357" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="357" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1">
         <v>354</v>
@@ -44270,7 +44256,7 @@
       <c r="BF357" s="1"/>
       <c r="BG357" s="1"/>
     </row>
-    <row r="358" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="358" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1">
         <v>355</v>
@@ -44379,7 +44365,7 @@
       <c r="BF358" s="1"/>
       <c r="BG358" s="1"/>
     </row>
-    <row r="359" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="359" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1">
         <v>356</v>
@@ -44492,7 +44478,7 @@
       <c r="BF359" s="1"/>
       <c r="BG359" s="1"/>
     </row>
-    <row r="360" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="360" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1">
         <v>357</v>
@@ -44605,7 +44591,7 @@
       <c r="BF360" s="1"/>
       <c r="BG360" s="1"/>
     </row>
-    <row r="361" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="361" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1">
         <v>358</v>
@@ -44710,7 +44696,7 @@
       <c r="BF361" s="1"/>
       <c r="BG361" s="1"/>
     </row>
-    <row r="362" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="362" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1">
         <v>359</v>
@@ -44817,7 +44803,7 @@
       <c r="BF362" s="1"/>
       <c r="BG362" s="1"/>
     </row>
-    <row r="363" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="363" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1">
         <v>360</v>
@@ -44926,7 +44912,7 @@
       <c r="BF363" s="1"/>
       <c r="BG363" s="1"/>
     </row>
-    <row r="364" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="364" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1">
         <v>361</v>
@@ -45039,7 +45025,7 @@
       <c r="BF364" s="1"/>
       <c r="BG364" s="1"/>
     </row>
-    <row r="365" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="365" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1">
         <v>362</v>
@@ -45148,7 +45134,7 @@
       <c r="BF365" s="1"/>
       <c r="BG365" s="1"/>
     </row>
-    <row r="366" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="366" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1">
         <v>363</v>
@@ -45253,7 +45239,7 @@
       <c r="BF366" s="1"/>
       <c r="BG366" s="1"/>
     </row>
-    <row r="367" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="367" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1">
         <v>364</v>
@@ -45360,7 +45346,7 @@
       <c r="BF367" s="1"/>
       <c r="BG367" s="1"/>
     </row>
-    <row r="368" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="368" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1">
         <v>365</v>
@@ -45467,7 +45453,7 @@
       <c r="BF368" s="1"/>
       <c r="BG368" s="1"/>
     </row>
-    <row r="369" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="369" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1">
         <v>366</v>
@@ -45572,7 +45558,7 @@
       <c r="BF369" s="1"/>
       <c r="BG369" s="1"/>
     </row>
-    <row r="370" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="370" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1">
         <v>367</v>
@@ -45681,7 +45667,7 @@
       <c r="BF370" s="1"/>
       <c r="BG370" s="1"/>
     </row>
-    <row r="371" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="371" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1">
         <v>368</v>
@@ -45794,7 +45780,7 @@
       <c r="BF371" s="1"/>
       <c r="BG371" s="1"/>
     </row>
-    <row r="372" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="372" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1">
         <v>369</v>
@@ -45907,7 +45893,7 @@
       <c r="BF372" s="1"/>
       <c r="BG372" s="1"/>
     </row>
-    <row r="373" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="373" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1">
         <v>370</v>
@@ -46012,7 +45998,7 @@
       <c r="BF373" s="1"/>
       <c r="BG373" s="1"/>
     </row>
-    <row r="374" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="374" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1">
         <v>371</v>
@@ -46119,7 +46105,7 @@
       <c r="BF374" s="1"/>
       <c r="BG374" s="1"/>
     </row>
-    <row r="375" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="375" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1">
         <v>372</v>
@@ -46228,7 +46214,7 @@
       <c r="BF375" s="1"/>
       <c r="BG375" s="1"/>
     </row>
-    <row r="376" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="376" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1">
         <v>373</v>
@@ -46341,7 +46327,7 @@
       <c r="BF376" s="1"/>
       <c r="BG376" s="1"/>
     </row>
-    <row r="377" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="377" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1">
         <v>374</v>
@@ -46450,7 +46436,7 @@
       <c r="BF377" s="1"/>
       <c r="BG377" s="1"/>
     </row>
-    <row r="378" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="378" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1">
         <v>375</v>
@@ -46555,7 +46541,7 @@
       <c r="BF378" s="1"/>
       <c r="BG378" s="1"/>
     </row>
-    <row r="379" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="379" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1">
         <v>376</v>
@@ -46662,7 +46648,7 @@
       <c r="BF379" s="1"/>
       <c r="BG379" s="1"/>
     </row>
-    <row r="380" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="380" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1">
         <v>377</v>
@@ -46769,7 +46755,7 @@
       <c r="BF380" s="1"/>
       <c r="BG380" s="1"/>
     </row>
-    <row r="381" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="381" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1">
         <v>378</v>
@@ -46874,7 +46860,7 @@
       <c r="BF381" s="1"/>
       <c r="BG381" s="1"/>
     </row>
-    <row r="382" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="382" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1">
         <v>379</v>
@@ -46981,7 +46967,7 @@
       <c r="BF382" s="1"/>
       <c r="BG382" s="1"/>
     </row>
-    <row r="383" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="383" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1">
         <v>380</v>
@@ -47092,7 +47078,7 @@
       <c r="BF383" s="1"/>
       <c r="BG383" s="1"/>
     </row>
-    <row r="384" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="384" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1">
         <v>381</v>
@@ -47203,7 +47189,7 @@
       <c r="BF384" s="1"/>
       <c r="BG384" s="1"/>
     </row>
-    <row r="385" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="385" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1">
         <v>382</v>
@@ -47306,7 +47292,7 @@
       <c r="BF385" s="1"/>
       <c r="BG385" s="1"/>
     </row>
-    <row r="386" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="386" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1">
         <v>383</v>
@@ -47411,7 +47397,7 @@
       <c r="BF386" s="1"/>
       <c r="BG386" s="1"/>
     </row>
-    <row r="387" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="387" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1">
         <v>384</v>
@@ -47518,7 +47504,7 @@
       <c r="BF387" s="1"/>
       <c r="BG387" s="1"/>
     </row>
-    <row r="388" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="388" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1">
         <v>385</v>
@@ -47629,7 +47615,7 @@
       <c r="BF388" s="1"/>
       <c r="BG388" s="1"/>
     </row>
-    <row r="389" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="389" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1">
         <v>386</v>
@@ -47736,7 +47722,7 @@
       <c r="BF389" s="1"/>
       <c r="BG389" s="1"/>
     </row>
-    <row r="390" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="390" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1">
         <v>387</v>
@@ -47839,7 +47825,7 @@
       <c r="BF390" s="1"/>
       <c r="BG390" s="1"/>
     </row>
-    <row r="391" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="391" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1">
         <v>388</v>
@@ -47944,7 +47930,7 @@
       <c r="BF391" s="1"/>
       <c r="BG391" s="1"/>
     </row>
-    <row r="392" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="392" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1">
         <v>389</v>
@@ -48049,7 +48035,7 @@
       <c r="BF392" s="1"/>
       <c r="BG392" s="1"/>
     </row>
-    <row r="393" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="393" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1">
         <v>390</v>
@@ -48152,7 +48138,7 @@
       <c r="BF393" s="1"/>
       <c r="BG393" s="1"/>
     </row>
-    <row r="394" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="394" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1">
         <v>391</v>
@@ -48259,7 +48245,7 @@
       <c r="BF394" s="1"/>
       <c r="BG394" s="1"/>
     </row>
-    <row r="395" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="395" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1">
         <v>392</v>
@@ -48338,7 +48324,7 @@
       <c r="BF395" s="1"/>
       <c r="BG395" s="1"/>
     </row>
-    <row r="396" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="396" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1">
         <v>393</v>
@@ -48417,7 +48403,7 @@
       <c r="BF396" s="1"/>
       <c r="BG396" s="1"/>
     </row>
-    <row r="397" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="397" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1">
         <v>394</v>
@@ -48496,7 +48482,7 @@
       <c r="BF397" s="1"/>
       <c r="BG397" s="1"/>
     </row>
-    <row r="398" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="398" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1">
         <v>395</v>
@@ -48585,7 +48571,7 @@
       <c r="BF398" s="1"/>
       <c r="BG398" s="1"/>
     </row>
-    <row r="399" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="399" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1">
         <v>396</v>
@@ -48674,7 +48660,7 @@
       <c r="BF399" s="1"/>
       <c r="BG399" s="1"/>
     </row>
-    <row r="400" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="400" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1">
         <v>397</v>
@@ -48763,7 +48749,7 @@
       <c r="BF400" s="1"/>
       <c r="BG400" s="1"/>
     </row>
-    <row r="401" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="401" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1">
         <v>398</v>
@@ -48852,7 +48838,7 @@
       <c r="BF401" s="1"/>
       <c r="BG401" s="1"/>
     </row>
-    <row r="402" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="402" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1">
         <v>399</v>
@@ -48941,7 +48927,7 @@
       <c r="BF402" s="1"/>
       <c r="BG402" s="1"/>
     </row>
-    <row r="403" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="403" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1">
         <v>400</v>
@@ -49030,7 +49016,7 @@
       <c r="BF403" s="1"/>
       <c r="BG403" s="1"/>
     </row>
-    <row r="404" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="404" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1">
         <v>401</v>
@@ -49119,7 +49105,7 @@
       <c r="BF404" s="1"/>
       <c r="BG404" s="1"/>
     </row>
-    <row r="405" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="405" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1">
         <v>402</v>
@@ -49208,7 +49194,7 @@
       <c r="BF405" s="1"/>
       <c r="BG405" s="1"/>
     </row>
-    <row r="406" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="406" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1">
         <v>403</v>
@@ -49297,7 +49283,7 @@
       <c r="BF406" s="1"/>
       <c r="BG406" s="1"/>
     </row>
-    <row r="407" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="407" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1">
         <v>404</v>
@@ -49386,7 +49372,7 @@
       <c r="BF407" s="1"/>
       <c r="BG407" s="1"/>
     </row>
-    <row r="408" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="408" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1">
         <v>405</v>
@@ -49475,7 +49461,7 @@
       <c r="BF408" s="1"/>
       <c r="BG408" s="1"/>
     </row>
-    <row r="409" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="409" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1">
         <v>406</v>
@@ -49564,7 +49550,7 @@
       <c r="BF409" s="1"/>
       <c r="BG409" s="1"/>
     </row>
-    <row r="410" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="410" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1">
         <v>407</v>
@@ -49653,7 +49639,7 @@
       <c r="BF410" s="1"/>
       <c r="BG410" s="1"/>
     </row>
-    <row r="411" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="411" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1">
         <v>408</v>
@@ -49742,7 +49728,7 @@
       <c r="BF411" s="1"/>
       <c r="BG411" s="1"/>
     </row>
-    <row r="412" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="412" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1">
         <v>409</v>
@@ -49831,7 +49817,7 @@
       <c r="BF412" s="1"/>
       <c r="BG412" s="1"/>
     </row>
-    <row r="413" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="413" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1">
         <v>410</v>
@@ -49920,7 +49906,7 @@
       <c r="BF413" s="1"/>
       <c r="BG413" s="1"/>
     </row>
-    <row r="414" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="414" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1">
         <v>411</v>
@@ -50009,7 +49995,7 @@
       <c r="BF414" s="1"/>
       <c r="BG414" s="1"/>
     </row>
-    <row r="415" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="415" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1">
         <v>412</v>
@@ -50098,7 +50084,7 @@
       <c r="BF415" s="1"/>
       <c r="BG415" s="1"/>
     </row>
-    <row r="416" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="416" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1">
         <v>413</v>
@@ -50187,7 +50173,7 @@
       <c r="BF416" s="1"/>
       <c r="BG416" s="1"/>
     </row>
-    <row r="417" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="417" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1">
         <v>414</v>
@@ -50276,7 +50262,7 @@
       <c r="BF417" s="1"/>
       <c r="BG417" s="1"/>
     </row>
-    <row r="418" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="418" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1">
         <v>415</v>
@@ -50365,7 +50351,7 @@
       <c r="BF418" s="1"/>
       <c r="BG418" s="1"/>
     </row>
-    <row r="419" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="419" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1">
         <v>416</v>
@@ -50454,7 +50440,7 @@
       <c r="BF419" s="1"/>
       <c r="BG419" s="1"/>
     </row>
-    <row r="420" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="420" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1">
         <v>417</v>
@@ -50543,7 +50529,7 @@
       <c r="BF420" s="1"/>
       <c r="BG420" s="1"/>
     </row>
-    <row r="421" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="421" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1">
         <v>418</v>
@@ -50632,7 +50618,7 @@
       <c r="BF421" s="1"/>
       <c r="BG421" s="1"/>
     </row>
-    <row r="422" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="422" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1">
         <v>419</v>
@@ -50721,7 +50707,7 @@
       <c r="BF422" s="1"/>
       <c r="BG422" s="1"/>
     </row>
-    <row r="423" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="423" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1">
         <v>420</v>
@@ -50810,7 +50796,7 @@
       <c r="BF423" s="1"/>
       <c r="BG423" s="1"/>
     </row>
-    <row r="424" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="424" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1">
         <v>421</v>
@@ -50899,7 +50885,7 @@
       <c r="BF424" s="1"/>
       <c r="BG424" s="1"/>
     </row>
-    <row r="425" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="425" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1">
         <v>422</v>
@@ -50988,7 +50974,7 @@
       <c r="BF425" s="1"/>
       <c r="BG425" s="1"/>
     </row>
-    <row r="426" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="426" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1">
         <v>423</v>
@@ -51077,7 +51063,7 @@
       <c r="BF426" s="1"/>
       <c r="BG426" s="1"/>
     </row>
-    <row r="427" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="427" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1">
         <v>424</v>
@@ -51166,7 +51152,7 @@
       <c r="BF427" s="1"/>
       <c r="BG427" s="1"/>
     </row>
-    <row r="428" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="428" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1">
         <v>425</v>
@@ -51255,7 +51241,7 @@
       <c r="BF428" s="1"/>
       <c r="BG428" s="1"/>
     </row>
-    <row r="429" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="429" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1">
         <v>426</v>
@@ -51344,7 +51330,7 @@
       <c r="BF429" s="1"/>
       <c r="BG429" s="1"/>
     </row>
-    <row r="430" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="430" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1">
         <v>427</v>
@@ -51433,7 +51419,7 @@
       <c r="BF430" s="1"/>
       <c r="BG430" s="1"/>
     </row>
-    <row r="431" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="431" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1">
         <v>428</v>
@@ -51522,7 +51508,7 @@
       <c r="BF431" s="1"/>
       <c r="BG431" s="1"/>
     </row>
-    <row r="432" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="432" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1">
         <v>429</v>
@@ -51611,7 +51597,7 @@
       <c r="BF432" s="1"/>
       <c r="BG432" s="1"/>
     </row>
-    <row r="433" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="433" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1">
         <v>430</v>
@@ -51700,7 +51686,7 @@
       <c r="BF433" s="1"/>
       <c r="BG433" s="1"/>
     </row>
-    <row r="434" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="434" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1">
         <v>431</v>
@@ -51789,7 +51775,7 @@
       <c r="BF434" s="1"/>
       <c r="BG434" s="1"/>
     </row>
-    <row r="435" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="435" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1">
         <v>432</v>
@@ -51878,7 +51864,7 @@
       <c r="BF435" s="1"/>
       <c r="BG435" s="1"/>
     </row>
-    <row r="436" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="436" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1">
         <v>433</v>
@@ -51967,7 +51953,7 @@
       <c r="BF436" s="1"/>
       <c r="BG436" s="1"/>
     </row>
-    <row r="437" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="437" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1">
         <v>434</v>
@@ -52056,7 +52042,7 @@
       <c r="BF437" s="1"/>
       <c r="BG437" s="1"/>
     </row>
-    <row r="438" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="438" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1">
         <v>435</v>
@@ -52145,7 +52131,7 @@
       <c r="BF438" s="1"/>
       <c r="BG438" s="1"/>
     </row>
-    <row r="439" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="439" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1">
         <v>436</v>
@@ -52234,7 +52220,7 @@
       <c r="BF439" s="1"/>
       <c r="BG439" s="1"/>
     </row>
-    <row r="440" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="440" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1">
         <v>437</v>
@@ -52323,7 +52309,7 @@
       <c r="BF440" s="1"/>
       <c r="BG440" s="1"/>
     </row>
-    <row r="441" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="441" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1">
         <v>438</v>
@@ -52412,7 +52398,7 @@
       <c r="BF441" s="1"/>
       <c r="BG441" s="1"/>
     </row>
-    <row r="442" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="442" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1">
         <v>439</v>
@@ -52501,7 +52487,7 @@
       <c r="BF442" s="1"/>
       <c r="BG442" s="1"/>
     </row>
-    <row r="443" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="443" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1">
         <v>440</v>
@@ -52590,7 +52576,7 @@
       <c r="BF443" s="1"/>
       <c r="BG443" s="1"/>
     </row>
-    <row r="444" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="444" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1">
         <v>441</v>
@@ -52679,7 +52665,7 @@
       <c r="BF444" s="1"/>
       <c r="BG444" s="1"/>
     </row>
-    <row r="445" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="445" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1">
         <v>442</v>
@@ -52768,7 +52754,7 @@
       <c r="BF445" s="1"/>
       <c r="BG445" s="1"/>
     </row>
-    <row r="446" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="446" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1">
         <v>443</v>
@@ -52857,7 +52843,7 @@
       <c r="BF446" s="1"/>
       <c r="BG446" s="1"/>
     </row>
-    <row r="447" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="447" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1">
         <v>444</v>
@@ -52946,7 +52932,7 @@
       <c r="BF447" s="1"/>
       <c r="BG447" s="1"/>
     </row>
-    <row r="448" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="448" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1">
         <v>445</v>
@@ -53035,7 +53021,7 @@
       <c r="BF448" s="1"/>
       <c r="BG448" s="1"/>
     </row>
-    <row r="449" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="449" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1">
         <v>446</v>
@@ -53124,7 +53110,7 @@
       <c r="BF449" s="1"/>
       <c r="BG449" s="1"/>
     </row>
-    <row r="450" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="450" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1">
         <v>447</v>
@@ -53213,7 +53199,7 @@
       <c r="BF450" s="1"/>
       <c r="BG450" s="1"/>
     </row>
-    <row r="451" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="451" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1">
         <v>448</v>
@@ -53302,7 +53288,7 @@
       <c r="BF451" s="1"/>
       <c r="BG451" s="1"/>
     </row>
-    <row r="452" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="452" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1">
         <v>449</v>
@@ -53391,7 +53377,7 @@
       <c r="BF452" s="1"/>
       <c r="BG452" s="1"/>
     </row>
-    <row r="453" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="453" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1">
         <v>450</v>
@@ -53480,7 +53466,7 @@
       <c r="BF453" s="1"/>
       <c r="BG453" s="1"/>
     </row>
-    <row r="454" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="454" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1">
         <v>451</v>
@@ -53569,7 +53555,7 @@
       <c r="BF454" s="1"/>
       <c r="BG454" s="1"/>
     </row>
-    <row r="455" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="455" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1">
         <v>452</v>
@@ -53658,7 +53644,7 @@
       <c r="BF455" s="1"/>
       <c r="BG455" s="1"/>
     </row>
-    <row r="456" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="456" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1">
         <v>453</v>
@@ -53747,7 +53733,7 @@
       <c r="BF456" s="1"/>
       <c r="BG456" s="1"/>
     </row>
-    <row r="457" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="457" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1">
         <v>454</v>
@@ -53836,7 +53822,7 @@
       <c r="BF457" s="1"/>
       <c r="BG457" s="1"/>
     </row>
-    <row r="458" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="458" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1">
         <v>455</v>
@@ -53923,7 +53909,7 @@
       <c r="BF458" s="1"/>
       <c r="BG458" s="1"/>
     </row>
-    <row r="459" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="459" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1">
         <v>456</v>
@@ -54010,7 +53996,7 @@
       <c r="BF459" s="1"/>
       <c r="BG459" s="1"/>
     </row>
-    <row r="460" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="460" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1">
         <v>457</v>
@@ -54097,7 +54083,7 @@
       <c r="BF460" s="1"/>
       <c r="BG460" s="1"/>
     </row>
-    <row r="461" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="461" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1">
         <v>458</v>
@@ -54184,7 +54170,7 @@
       <c r="BF461" s="1"/>
       <c r="BG461" s="1"/>
     </row>
-    <row r="462" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="462" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1">
         <v>459</v>
@@ -54271,7 +54257,7 @@
       <c r="BF462" s="1"/>
       <c r="BG462" s="1"/>
     </row>
-    <row r="463" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="463" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1">
         <v>460</v>
@@ -54358,7 +54344,7 @@
       <c r="BF463" s="1"/>
       <c r="BG463" s="1"/>
     </row>
-    <row r="464" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="464" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1">
         <v>461</v>
@@ -54445,7 +54431,7 @@
       <c r="BF464" s="1"/>
       <c r="BG464" s="1"/>
     </row>
-    <row r="465" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="465" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1">
         <v>462</v>
@@ -54532,7 +54518,7 @@
       <c r="BF465" s="1"/>
       <c r="BG465" s="1"/>
     </row>
-    <row r="466" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="466" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1">
         <v>463</v>
@@ -54619,7 +54605,7 @@
       <c r="BF466" s="1"/>
       <c r="BG466" s="1"/>
     </row>
-    <row r="467" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="467" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1">
         <v>464</v>
@@ -54706,7 +54692,7 @@
       <c r="BF467" s="1"/>
       <c r="BG467" s="1"/>
     </row>
-    <row r="468" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="468" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1">
         <v>465</v>
@@ -54793,7 +54779,7 @@
       <c r="BF468" s="1"/>
       <c r="BG468" s="1"/>
     </row>
-    <row r="469" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="469" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1">
         <v>466</v>
@@ -54880,7 +54866,7 @@
       <c r="BF469" s="1"/>
       <c r="BG469" s="1"/>
     </row>
-    <row r="470" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="470" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1">
         <v>467</v>
@@ -54967,7 +54953,7 @@
       <c r="BF470" s="1"/>
       <c r="BG470" s="1"/>
     </row>
-    <row r="471" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="471" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1">
         <v>468</v>
@@ -55054,7 +55040,7 @@
       <c r="BF471" s="1"/>
       <c r="BG471" s="1"/>
     </row>
-    <row r="472" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="472" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1">
         <v>469</v>
@@ -55141,7 +55127,7 @@
       <c r="BF472" s="1"/>
       <c r="BG472" s="1"/>
     </row>
-    <row r="473" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="473" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1">
         <v>470</v>
@@ -55228,7 +55214,7 @@
       <c r="BF473" s="1"/>
       <c r="BG473" s="1"/>
     </row>
-    <row r="474" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="474" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1">
         <v>471</v>
@@ -55315,7 +55301,7 @@
       <c r="BF474" s="1"/>
       <c r="BG474" s="1"/>
     </row>
-    <row r="475" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="475" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1">
         <v>472</v>
@@ -55402,7 +55388,7 @@
       <c r="BF475" s="1"/>
       <c r="BG475" s="1"/>
     </row>
-    <row r="476" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="476" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1">
         <v>473</v>
@@ -55489,7 +55475,7 @@
       <c r="BF476" s="1"/>
       <c r="BG476" s="1"/>
     </row>
-    <row r="477" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="477" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1">
         <v>474</v>
@@ -55576,7 +55562,7 @@
       <c r="BF477" s="1"/>
       <c r="BG477" s="1"/>
     </row>
-    <row r="478" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="478" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1">
         <v>475</v>
@@ -55663,7 +55649,7 @@
       <c r="BF478" s="1"/>
       <c r="BG478" s="1"/>
     </row>
-    <row r="479" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="479" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1">
         <v>476</v>
@@ -55750,7 +55736,7 @@
       <c r="BF479" s="1"/>
       <c r="BG479" s="1"/>
     </row>
-    <row r="480" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="480" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1">
         <v>477</v>
@@ -55837,7 +55823,7 @@
       <c r="BF480" s="1"/>
       <c r="BG480" s="1"/>
     </row>
-    <row r="481" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="481" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1">
         <v>478</v>
@@ -55924,7 +55910,7 @@
       <c r="BF481" s="1"/>
       <c r="BG481" s="1"/>
     </row>
-    <row r="482" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="482" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1">
         <v>479</v>
@@ -56011,7 +55997,7 @@
       <c r="BF482" s="1"/>
       <c r="BG482" s="1"/>
     </row>
-    <row r="483" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="483" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1">
         <v>480</v>
@@ -56098,7 +56084,7 @@
       <c r="BF483" s="1"/>
       <c r="BG483" s="1"/>
     </row>
-    <row r="484" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="484" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1">
         <v>481</v>
@@ -56185,7 +56171,7 @@
       <c r="BF484" s="1"/>
       <c r="BG484" s="1"/>
     </row>
-    <row r="485" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="485" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1">
         <v>482</v>
@@ -56272,7 +56258,7 @@
       <c r="BF485" s="1"/>
       <c r="BG485" s="1"/>
     </row>
-    <row r="486" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="486" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1">
         <v>483</v>
@@ -56359,7 +56345,7 @@
       <c r="BF486" s="1"/>
       <c r="BG486" s="1"/>
     </row>
-    <row r="487" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="487" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1">
         <v>484</v>
@@ -56446,7 +56432,7 @@
       <c r="BF487" s="1"/>
       <c r="BG487" s="1"/>
     </row>
-    <row r="488" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="488" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1">
         <v>485</v>
@@ -56533,7 +56519,7 @@
       <c r="BF488" s="1"/>
       <c r="BG488" s="1"/>
     </row>
-    <row r="489" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="489" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1">
         <v>486</v>
@@ -56620,7 +56606,7 @@
       <c r="BF489" s="1"/>
       <c r="BG489" s="1"/>
     </row>
-    <row r="490" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="490" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1">
         <v>487</v>
@@ -56707,7 +56693,7 @@
       <c r="BF490" s="1"/>
       <c r="BG490" s="1"/>
     </row>
-    <row r="491" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="491" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1">
         <v>488</v>
@@ -56794,7 +56780,7 @@
       <c r="BF491" s="1"/>
       <c r="BG491" s="1"/>
     </row>
-    <row r="492" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="492" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1">
         <v>489</v>
@@ -56881,7 +56867,7 @@
       <c r="BF492" s="1"/>
       <c r="BG492" s="1"/>
     </row>
-    <row r="493" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="493" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1">
         <v>490</v>
@@ -56968,7 +56954,7 @@
       <c r="BF493" s="1"/>
       <c r="BG493" s="1"/>
     </row>
-    <row r="494" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="494" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1">
         <v>491</v>
@@ -57055,7 +57041,7 @@
       <c r="BF494" s="1"/>
       <c r="BG494" s="1"/>
     </row>
-    <row r="495" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="495" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1">
         <v>492</v>
@@ -57142,7 +57128,7 @@
       <c r="BF495" s="1"/>
       <c r="BG495" s="1"/>
     </row>
-    <row r="496" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="496" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1">
         <v>493</v>
@@ -57229,7 +57215,7 @@
       <c r="BF496" s="1"/>
       <c r="BG496" s="1"/>
     </row>
-    <row r="497" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="497" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1">
         <v>494</v>
@@ -57316,7 +57302,7 @@
       <c r="BF497" s="1"/>
       <c r="BG497" s="1"/>
     </row>
-    <row r="498" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="498" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1">
         <v>495</v>
@@ -57403,7 +57389,7 @@
       <c r="BF498" s="1"/>
       <c r="BG498" s="1"/>
     </row>
-    <row r="499" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="499" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1">
         <v>496</v>
@@ -57490,7 +57476,7 @@
       <c r="BF499" s="1"/>
       <c r="BG499" s="1"/>
     </row>
-    <row r="500" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="500" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1">
         <v>497</v>
@@ -57577,7 +57563,7 @@
       <c r="BF500" s="1"/>
       <c r="BG500" s="1"/>
     </row>
-    <row r="501" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="501" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1">
         <v>498</v>
@@ -57664,7 +57650,7 @@
       <c r="BF501" s="1"/>
       <c r="BG501" s="1"/>
     </row>
-    <row r="502" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="502" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1">
         <v>499</v>
@@ -57751,7 +57737,7 @@
       <c r="BF502" s="1"/>
       <c r="BG502" s="1"/>
     </row>
-    <row r="503" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="503" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1">
         <v>500</v>
@@ -57838,7 +57824,7 @@
       <c r="BF503" s="1"/>
       <c r="BG503" s="1"/>
     </row>
-    <row r="504" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="504" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1">
         <v>501</v>
@@ -57925,7 +57911,7 @@
       <c r="BF504" s="1"/>
       <c r="BG504" s="1"/>
     </row>
-    <row r="505" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="505" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1">
         <v>502</v>
@@ -58012,7 +57998,7 @@
       <c r="BF505" s="1"/>
       <c r="BG505" s="1"/>
     </row>
-    <row r="506" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="506" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1">
         <v>503</v>
@@ -58099,7 +58085,7 @@
       <c r="BF506" s="1"/>
       <c r="BG506" s="1"/>
     </row>
-    <row r="507" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="507" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1">
         <v>504</v>
@@ -58186,7 +58172,7 @@
       <c r="BF507" s="1"/>
       <c r="BG507" s="1"/>
     </row>
-    <row r="508" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="508" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1">
         <v>505</v>
@@ -58273,7 +58259,7 @@
       <c r="BF508" s="1"/>
       <c r="BG508" s="1"/>
     </row>
-    <row r="509" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="509" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1">
         <v>506</v>
@@ -58360,7 +58346,7 @@
       <c r="BF509" s="1"/>
       <c r="BG509" s="1"/>
     </row>
-    <row r="510" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="510" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1">
         <v>507</v>
@@ -58447,7 +58433,7 @@
       <c r="BF510" s="1"/>
       <c r="BG510" s="1"/>
     </row>
-    <row r="511" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="511" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1">
         <v>508</v>
@@ -58534,7 +58520,7 @@
       <c r="BF511" s="1"/>
       <c r="BG511" s="1"/>
     </row>
-    <row r="512" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="512" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1">
         <v>509</v>
@@ -58621,7 +58607,7 @@
       <c r="BF512" s="1"/>
       <c r="BG512" s="1"/>
     </row>
-    <row r="513" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="513" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1">
         <v>510</v>
@@ -58708,7 +58694,7 @@
       <c r="BF513" s="1"/>
       <c r="BG513" s="1"/>
     </row>
-    <row r="514" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="514" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1">
         <v>511</v>
@@ -58795,7 +58781,7 @@
       <c r="BF514" s="1"/>
       <c r="BG514" s="1"/>
     </row>
-    <row r="515" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="515" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1">
         <v>512</v>
@@ -58882,7 +58868,7 @@
       <c r="BF515" s="1"/>
       <c r="BG515" s="1"/>
     </row>
-    <row r="516" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="516" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1">
         <v>513</v>
@@ -58969,7 +58955,7 @@
       <c r="BF516" s="1"/>
       <c r="BG516" s="1"/>
     </row>
-    <row r="517" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="517" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1">
         <v>514</v>
@@ -59056,7 +59042,7 @@
       <c r="BF517" s="1"/>
       <c r="BG517" s="1"/>
     </row>
-    <row r="518" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="518" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1">
         <v>515</v>
@@ -59143,7 +59129,7 @@
       <c r="BF518" s="1"/>
       <c r="BG518" s="1"/>
     </row>
-    <row r="519" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="519" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1">
         <v>516</v>
@@ -59230,7 +59216,7 @@
       <c r="BF519" s="1"/>
       <c r="BG519" s="1"/>
     </row>
-    <row r="520" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="520" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1">
         <v>517</v>
@@ -59317,7 +59303,7 @@
       <c r="BF520" s="1"/>
       <c r="BG520" s="1"/>
     </row>
-    <row r="521" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="521" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1">
         <v>518</v>
@@ -59404,7 +59390,7 @@
       <c r="BF521" s="1"/>
       <c r="BG521" s="1"/>
     </row>
-    <row r="522" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="522" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1">
         <v>519</v>
@@ -59491,7 +59477,7 @@
       <c r="BF522" s="1"/>
       <c r="BG522" s="1"/>
     </row>
-    <row r="523" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="523" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1">
         <v>520</v>
@@ -59578,7 +59564,7 @@
       <c r="BF523" s="1"/>
       <c r="BG523" s="1"/>
     </row>
-    <row r="524" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="524" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1">
         <v>521</v>
@@ -59665,7 +59651,7 @@
       <c r="BF524" s="1"/>
       <c r="BG524" s="1"/>
     </row>
-    <row r="525" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="525" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1">
         <v>522</v>
@@ -59752,7 +59738,7 @@
       <c r="BF525" s="1"/>
       <c r="BG525" s="1"/>
     </row>
-    <row r="526" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="526" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1">
         <v>523</v>
@@ -59839,7 +59825,7 @@
       <c r="BF526" s="1"/>
       <c r="BG526" s="1"/>
     </row>
-    <row r="527" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="527" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1">
         <v>524</v>
@@ -59926,7 +59912,7 @@
       <c r="BF527" s="1"/>
       <c r="BG527" s="1"/>
     </row>
-    <row r="528" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="528" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1">
         <v>525</v>
@@ -60013,7 +59999,7 @@
       <c r="BF528" s="1"/>
       <c r="BG528" s="1"/>
     </row>
-    <row r="529" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="529" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1">
         <v>526</v>
@@ -60102,7 +60088,7 @@
       <c r="BF529" s="1"/>
       <c r="BG529" s="1"/>
     </row>
-    <row r="530" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="530" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1">
         <v>527</v>
@@ -60191,7 +60177,7 @@
       <c r="BF530" s="1"/>
       <c r="BG530" s="1"/>
     </row>
-    <row r="531" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="531" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1">
         <v>528</v>
@@ -60280,7 +60266,7 @@
       <c r="BF531" s="1"/>
       <c r="BG531" s="1"/>
     </row>
-    <row r="532" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="532" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1">
         <v>529</v>
@@ -60369,7 +60355,7 @@
       <c r="BF532" s="1"/>
       <c r="BG532" s="1"/>
     </row>
-    <row r="533" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="533" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1">
         <v>530</v>
@@ -60454,7 +60440,7 @@
       <c r="BF533" s="1"/>
       <c r="BG533" s="1"/>
     </row>
-    <row r="534" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="534" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1">
         <v>531</v>
@@ -60539,7 +60525,7 @@
       <c r="BF534" s="1"/>
       <c r="BG534" s="1"/>
     </row>
-    <row r="535" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="535" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1">
         <v>532</v>
@@ -60624,7 +60610,7 @@
       <c r="BF535" s="1"/>
       <c r="BG535" s="1"/>
     </row>
-    <row r="536" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="536" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1">
         <v>533</v>
@@ -60709,7 +60695,7 @@
       <c r="BF536" s="1"/>
       <c r="BG536" s="1"/>
     </row>
-    <row r="537" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="537" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1">
         <v>534</v>
@@ -60792,7 +60778,7 @@
       <c r="BF537" s="1"/>
       <c r="BG537" s="1"/>
     </row>
-    <row r="538" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="538" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1">
         <v>535</v>
@@ -60875,7 +60861,7 @@
       <c r="BF538" s="1"/>
       <c r="BG538" s="1"/>
     </row>
-    <row r="539" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="539" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1">
         <v>536</v>
@@ -60958,7 +60944,7 @@
       <c r="BF539" s="1"/>
       <c r="BG539" s="1"/>
     </row>
-    <row r="540" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="540" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1">
         <v>537</v>
@@ -61041,7 +61027,7 @@
       <c r="BF540" s="1"/>
       <c r="BG540" s="1"/>
     </row>
-    <row r="541" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="541" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1">
         <v>538</v>
@@ -61126,7 +61112,7 @@
       <c r="BF541" s="1"/>
       <c r="BG541" s="1"/>
     </row>
-    <row r="542" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="542" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1">
         <v>539</v>
@@ -61211,7 +61197,7 @@
       <c r="BF542" s="1"/>
       <c r="BG542" s="1"/>
     </row>
-    <row r="543" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="543" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1">
         <v>540</v>
@@ -61288,7 +61274,7 @@
       <c r="BF543" s="1"/>
       <c r="BG543" s="1"/>
     </row>
-    <row r="544" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="544" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1">
         <v>541</v>
@@ -61369,7 +61355,7 @@
       <c r="BF544" s="1"/>
       <c r="BG544" s="1"/>
     </row>
-    <row r="545" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="545" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1">
         <v>542</v>
@@ -61448,7 +61434,7 @@
       <c r="BF545" s="1"/>
       <c r="BG545" s="1"/>
     </row>
-    <row r="546" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="546" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1">
         <v>543</v>
@@ -61529,7 +61515,7 @@
       <c r="BF546" s="1"/>
       <c r="BG546" s="1"/>
     </row>
-    <row r="547" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="547" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1">
         <v>544</v>
@@ -61610,7 +61596,7 @@
       <c r="BF547" s="1"/>
       <c r="BG547" s="1"/>
     </row>
-    <row r="548" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="548" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1">
         <v>545</v>
@@ -61691,7 +61677,7 @@
       <c r="BF548" s="1"/>
       <c r="BG548" s="1"/>
     </row>
-    <row r="549" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="549" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1">
         <v>546</v>
@@ -61772,7 +61758,7 @@
       <c r="BF549" s="1"/>
       <c r="BG549" s="1"/>
     </row>
-    <row r="550" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="550" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1">
         <v>547</v>
@@ -61853,7 +61839,7 @@
       <c r="BF550" s="1"/>
       <c r="BG550" s="1"/>
     </row>
-    <row r="551" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="551" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1">
         <v>548</v>
@@ -61934,7 +61920,7 @@
       <c r="BF551" s="1"/>
       <c r="BG551" s="1"/>
     </row>
-    <row r="552" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="552" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1">
         <v>549</v>
@@ -62015,7 +62001,7 @@
       <c r="BF552" s="1"/>
       <c r="BG552" s="1"/>
     </row>
-    <row r="553" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="553" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1">
         <v>550</v>
@@ -62098,7 +62084,7 @@
       <c r="BF553" s="1"/>
       <c r="BG553" s="1"/>
     </row>
-    <row r="554" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="554" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1">
         <v>551</v>
@@ -62189,7 +62175,7 @@
       <c r="BF554" s="1"/>
       <c r="BG554" s="1"/>
     </row>
-    <row r="555" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="555" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1">
         <v>552</v>
@@ -62278,7 +62264,7 @@
       <c r="BF555" s="1"/>
       <c r="BG555" s="1"/>
     </row>
-    <row r="556" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="556" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1">
         <v>553</v>
@@ -62361,7 +62347,7 @@
       <c r="BF556" s="1"/>
       <c r="BG556" s="1"/>
     </row>
-    <row r="557" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="557" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1">
         <v>554</v>
@@ -62442,7 +62428,7 @@
       <c r="BF557" s="1"/>
       <c r="BG557" s="1"/>
     </row>
-    <row r="558" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="558" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1">
         <v>555</v>
@@ -62523,7 +62509,7 @@
       <c r="BF558" s="1"/>
       <c r="BG558" s="1"/>
     </row>
-    <row r="559" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="559" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1">
         <v>556</v>
@@ -62604,7 +62590,7 @@
       <c r="BF559" s="1"/>
       <c r="BG559" s="1"/>
     </row>
-    <row r="560" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="560" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1">
         <v>557</v>
@@ -62685,7 +62671,7 @@
       <c r="BF560" s="1"/>
       <c r="BG560" s="1"/>
     </row>
-    <row r="561" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="561" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1">
         <v>558</v>
@@ -62768,7 +62754,7 @@
       <c r="BF561" s="1"/>
       <c r="BG561" s="1"/>
     </row>
-    <row r="562" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="562" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1">
         <v>559</v>
@@ -62851,7 +62837,7 @@
       <c r="BF562" s="1"/>
       <c r="BG562" s="1"/>
     </row>
-    <row r="563" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="563" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1">
         <v>560</v>
@@ -62934,7 +62920,7 @@
       <c r="BF563" s="1"/>
       <c r="BG563" s="1"/>
     </row>
-    <row r="564" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="564" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1">
         <v>561</v>
@@ -63017,7 +63003,7 @@
       <c r="BF564" s="1"/>
       <c r="BG564" s="1"/>
     </row>
-    <row r="565" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="565" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1">
         <v>562</v>
@@ -63098,7 +63084,7 @@
       <c r="BF565" s="1"/>
       <c r="BG565" s="1"/>
     </row>
-    <row r="566" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="566" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1">
         <v>563</v>
@@ -63187,7 +63173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="567" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="567" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1">
         <v>564</v>
@@ -63276,7 +63262,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="568" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="568" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1">
         <v>565</v>
@@ -63365,7 +63351,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="569" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="569" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1">
         <v>566</v>
@@ -63454,7 +63440,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="570" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="570" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1">
         <v>567</v>
@@ -63543,7 +63529,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="571" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="571" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1">
         <v>568</v>
@@ -63632,7 +63618,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="572" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="572" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1">
         <v>569</v>
@@ -63721,7 +63707,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="573" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="573" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1">
         <v>570</v>
@@ -63810,7 +63796,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="574" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="574" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1">
         <v>571</v>
@@ -63899,7 +63885,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="575" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="575" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1">
         <v>572</v>
@@ -63988,7 +63974,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="576" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="576" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1">
         <v>573</v>
@@ -64077,7 +64063,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="577" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="577" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1">
         <v>574</v>
@@ -64166,7 +64152,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="578" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="578" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1">
         <v>575</v>
@@ -64255,7 +64241,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="579" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="579" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1">
         <v>576</v>
@@ -64344,7 +64330,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="580" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="580" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1">
         <v>577</v>
@@ -64433,7 +64419,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="581" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="581" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1">
         <v>578</v>
@@ -64522,7 +64508,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="582" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="582" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1">
         <v>579</v>
@@ -64611,7 +64597,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="583" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="583" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1">
         <v>580</v>
@@ -64700,7 +64686,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="584" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="584" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1">
         <v>581</v>
@@ -64789,7 +64775,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="585" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="585" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1">
         <v>582</v>
@@ -64878,7 +64864,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="586" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="586" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1">
         <v>583</v>
@@ -64967,7 +64953,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="587" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="587" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1">
         <v>584</v>
@@ -65056,7 +65042,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="588" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="588" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1">
         <v>585</v>
@@ -65145,7 +65131,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="589" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="589" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1">
         <v>586</v>
@@ -65234,7 +65220,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="590" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="590" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1">
         <v>587</v>
@@ -65323,7 +65309,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="591" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="591" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1">
         <v>588</v>
@@ -65412,7 +65398,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="592" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="592" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1">
         <v>589</v>
@@ -65501,7 +65487,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="593" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="593" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1">
         <v>590</v>
@@ -65590,7 +65576,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="594" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="594" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1">
         <v>591</v>
@@ -65679,7 +65665,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="595" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="595" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1">
         <v>592</v>
@@ -65768,7 +65754,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="596" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="596" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1">
         <v>593</v>
@@ -65857,7 +65843,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="597" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="597" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1">
         <v>594</v>
@@ -65946,7 +65932,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="598" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="598" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1">
         <v>595</v>
@@ -66035,7 +66021,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="599" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="599" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1">
         <v>596</v>
@@ -66124,7 +66110,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="600" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="600" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1">
         <v>597</v>
@@ -66213,7 +66199,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="601" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="601" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1">
         <v>598</v>
@@ -66302,7 +66288,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="602" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="602" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1">
         <v>599</v>
@@ -66391,7 +66377,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="603" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="603" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1">
         <v>600</v>
@@ -66480,7 +66466,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="604" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="604" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1">
         <v>601</v>
@@ -66569,7 +66555,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="605" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="605" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1">
         <v>602</v>
@@ -66658,7 +66644,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="606" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="606" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1">
         <v>603</v>
@@ -66747,7 +66733,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="607" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="607" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1">
         <v>604</v>
@@ -66836,7 +66822,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="608" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="608" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1">
         <v>605</v>
@@ -66925,7 +66911,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="609" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="609" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1">
         <v>606</v>
@@ -67014,7 +67000,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="610" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="610" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1">
         <v>607</v>
@@ -67103,7 +67089,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="611" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="611" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1">
         <v>608</v>
@@ -67192,7 +67178,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="612" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="612" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1">
         <v>609</v>
@@ -67281,7 +67267,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="613" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="613" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1">
         <v>610</v>
@@ -67370,7 +67356,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="614" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="614" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1">
         <v>611</v>
@@ -67447,7 +67433,7 @@
       <c r="BF614" s="1"/>
       <c r="BG614" s="1"/>
     </row>
-    <row r="615" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="615" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1">
         <v>612</v>
@@ -67532,7 +67518,7 @@
       <c r="BF615" s="1"/>
       <c r="BG615" s="1"/>
     </row>
-    <row r="616" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="616" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1">
         <v>613</v>
@@ -67611,7 +67597,7 @@
       <c r="BF616" s="1"/>
       <c r="BG616" s="1"/>
     </row>
-    <row r="617" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="617" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1">
         <v>614</v>
@@ -67698,7 +67684,7 @@
       <c r="BF617" s="1"/>
       <c r="BG617" s="1"/>
     </row>
-    <row r="618" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="618" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1">
         <v>615</v>
@@ -67785,7 +67771,7 @@
       <c r="BF618" s="1"/>
       <c r="BG618" s="1"/>
     </row>
-    <row r="619" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="619" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1">
         <v>616</v>
@@ -67872,7 +67858,7 @@
       <c r="BF619" s="1"/>
       <c r="BG619" s="1"/>
     </row>
-    <row r="620" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="620" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1">
         <v>617</v>
@@ -67959,7 +67945,7 @@
       <c r="BF620" s="1"/>
       <c r="BG620" s="1"/>
     </row>
-    <row r="621" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="621" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1">
         <v>618</v>
@@ -68046,7 +68032,7 @@
       <c r="BF621" s="1"/>
       <c r="BG621" s="1"/>
     </row>
-    <row r="622" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="622" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1">
         <v>619</v>
@@ -68133,7 +68119,7 @@
       <c r="BF622" s="1"/>
       <c r="BG622" s="1"/>
     </row>
-    <row r="623" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="623" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1">
         <v>620</v>
@@ -68220,7 +68206,7 @@
       <c r="BF623" s="1"/>
       <c r="BG623" s="1"/>
     </row>
-    <row r="624" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="624" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1">
         <v>621</v>
@@ -68307,7 +68293,7 @@
       <c r="BF624" s="1"/>
       <c r="BG624" s="1"/>
     </row>
-    <row r="625" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="625" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1">
         <v>622</v>
@@ -68408,7 +68394,7 @@
       <c r="BF625" s="1"/>
       <c r="BG625" s="1"/>
     </row>
-    <row r="626" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="626" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1">
         <v>623</v>
@@ -68513,7 +68499,7 @@
       <c r="BF626" s="1"/>
       <c r="BG626" s="1"/>
     </row>
-    <row r="627" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="627" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1">
         <v>624</v>
@@ -68618,7 +68604,7 @@
       <c r="BF627" s="1"/>
       <c r="BG627" s="1"/>
     </row>
-    <row r="628" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="628" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1">
         <v>625</v>
@@ -68723,7 +68709,7 @@
       <c r="BF628" s="1"/>
       <c r="BG628" s="1"/>
     </row>
-    <row r="629" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="629" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1">
         <v>626</v>
@@ -68828,7 +68814,7 @@
       <c r="BF629" s="1"/>
       <c r="BG629" s="1"/>
     </row>
-    <row r="630" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="630" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1">
         <v>627</v>
@@ -68931,7 +68917,7 @@
       <c r="BF630" s="1"/>
       <c r="BG630" s="1"/>
     </row>
-    <row r="631" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="631" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1">
         <v>628</v>
@@ -69034,7 +69020,7 @@
       <c r="BF631" s="1"/>
       <c r="BG631" s="1"/>
     </row>
-    <row r="632" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="632" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1">
         <v>629</v>
@@ -69139,7 +69125,7 @@
       <c r="BF632" s="1"/>
       <c r="BG632" s="1"/>
     </row>
-    <row r="633" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="633" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1">
         <v>630</v>
@@ -69244,7 +69230,7 @@
       <c r="BF633" s="1"/>
       <c r="BG633" s="1"/>
     </row>
-    <row r="634" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="634" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1">
         <v>631</v>
@@ -69349,7 +69335,7 @@
       <c r="BF634" s="1"/>
       <c r="BG634" s="1"/>
     </row>
-    <row r="635" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="635" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1">
         <v>632</v>
@@ -69454,7 +69440,7 @@
       <c r="BF635" s="1"/>
       <c r="BG635" s="1"/>
     </row>
-    <row r="636" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="636" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1">
         <v>633</v>
@@ -69557,7 +69543,7 @@
       <c r="BF636" s="1"/>
       <c r="BG636" s="1"/>
     </row>
-    <row r="637" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="637" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1">
         <v>634</v>
@@ -69660,7 +69646,7 @@
       <c r="BF637" s="1"/>
       <c r="BG637" s="1"/>
     </row>
-    <row r="638" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="638" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1">
         <v>635</v>
@@ -69765,7 +69751,7 @@
       <c r="BF638" s="1"/>
       <c r="BG638" s="1"/>
     </row>
-    <row r="639" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="639" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1">
         <v>636</v>
@@ -69870,7 +69856,7 @@
       <c r="BF639" s="1"/>
       <c r="BG639" s="1"/>
     </row>
-    <row r="640" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="640" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1">
         <v>637</v>
@@ -69975,7 +69961,7 @@
       <c r="BF640" s="1"/>
       <c r="BG640" s="1"/>
     </row>
-    <row r="641" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="641" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1">
         <v>638</v>
@@ -70080,7 +70066,7 @@
       <c r="BF641" s="1"/>
       <c r="BG641" s="1"/>
     </row>
-    <row r="642" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="642" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1">
         <v>639</v>
@@ -70183,7 +70169,7 @@
       <c r="BF642" s="1"/>
       <c r="BG642" s="1"/>
     </row>
-    <row r="643" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="643" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1">
         <v>640</v>
@@ -70286,7 +70272,7 @@
       <c r="BF643" s="1"/>
       <c r="BG643" s="1"/>
     </row>
-    <row r="644" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="644" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1">
         <v>641</v>
@@ -70391,7 +70377,7 @@
       <c r="BF644" s="1"/>
       <c r="BG644" s="1"/>
     </row>
-    <row r="645" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="645" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1">
         <v>642</v>
@@ -70496,7 +70482,7 @@
       <c r="BF645" s="1"/>
       <c r="BG645" s="1"/>
     </row>
-    <row r="646" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="646" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1">
         <v>643</v>
@@ -70601,7 +70587,7 @@
       <c r="BF646" s="1"/>
       <c r="BG646" s="1"/>
     </row>
-    <row r="647" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="647" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1">
         <v>644</v>
@@ -70706,7 +70692,7 @@
       <c r="BF647" s="1"/>
       <c r="BG647" s="1"/>
     </row>
-    <row r="648" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="648" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1">
         <v>645</v>
@@ -70809,7 +70795,7 @@
       <c r="BF648" s="1"/>
       <c r="BG648" s="1"/>
     </row>
-    <row r="649" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="649" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1">
         <v>646</v>
@@ -70910,7 +70896,7 @@
       <c r="BF649" s="1"/>
       <c r="BG649" s="1"/>
     </row>
-    <row r="650" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="650" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1">
         <v>647</v>
@@ -71011,7 +70997,7 @@
       <c r="BF650" s="1"/>
       <c r="BG650" s="1"/>
     </row>
-    <row r="651" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="651" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1">
         <v>648</v>
@@ -71112,7 +71098,7 @@
       <c r="BF651" s="1"/>
       <c r="BG651" s="1"/>
     </row>
-    <row r="652" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="652" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1">
         <v>649</v>
@@ -71213,7 +71199,7 @@
       <c r="BF652" s="1"/>
       <c r="BG652" s="1"/>
     </row>
-    <row r="653" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="653" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1">
         <v>650</v>
@@ -71314,7 +71300,7 @@
       <c r="BF653" s="1"/>
       <c r="BG653" s="1"/>
     </row>
-    <row r="654" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="654" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1">
         <v>651</v>
@@ -71413,7 +71399,7 @@
       <c r="BF654" s="1"/>
       <c r="BG654" s="1"/>
     </row>
-    <row r="655" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="655" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1">
         <v>652</v>
@@ -71512,7 +71498,7 @@
       <c r="BF655" s="1"/>
       <c r="BG655" s="1"/>
     </row>
-    <row r="656" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="656" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1">
         <v>653</v>
@@ -71615,7 +71601,7 @@
       <c r="BF656" s="1"/>
       <c r="BG656" s="1"/>
     </row>
-    <row r="657" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="657" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1">
         <v>654</v>
@@ -71718,7 +71704,7 @@
       <c r="BF657" s="1"/>
       <c r="BG657" s="1"/>
     </row>
-    <row r="658" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="658" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1">
         <v>655</v>
@@ -71821,7 +71807,7 @@
       <c r="BF658" s="1"/>
       <c r="BG658" s="1"/>
     </row>
-    <row r="659" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="659" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1">
         <v>656</v>
@@ -71924,7 +71910,7 @@
       <c r="BF659" s="1"/>
       <c r="BG659" s="1"/>
     </row>
-    <row r="660" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="660" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1">
         <v>657</v>
@@ -72025,7 +72011,7 @@
       <c r="BF660" s="1"/>
       <c r="BG660" s="1"/>
     </row>
-    <row r="661" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="661" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1">
         <v>658</v>
@@ -72126,7 +72112,7 @@
       <c r="BF661" s="1"/>
       <c r="BG661" s="1"/>
     </row>
-    <row r="662" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="662" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1">
         <v>659</v>
@@ -72229,7 +72215,7 @@
       <c r="BF662" s="1"/>
       <c r="BG662" s="1"/>
     </row>
-    <row r="663" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="663" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1">
         <v>660</v>
@@ -72332,7 +72318,7 @@
       <c r="BF663" s="1"/>
       <c r="BG663" s="1"/>
     </row>
-    <row r="664" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="664" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1">
         <v>661</v>
@@ -72435,7 +72421,7 @@
       <c r="BF664" s="1"/>
       <c r="BG664" s="1"/>
     </row>
-    <row r="665" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="665" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1">
         <v>662</v>
@@ -72538,7 +72524,7 @@
       <c r="BF665" s="1"/>
       <c r="BG665" s="1"/>
     </row>
-    <row r="666" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="666" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1">
         <v>663</v>
@@ -72639,7 +72625,7 @@
       <c r="BF666" s="1"/>
       <c r="BG666" s="1"/>
     </row>
-    <row r="667" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="667" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1">
         <v>664</v>
@@ -72740,7 +72726,7 @@
       <c r="BF667" s="1"/>
       <c r="BG667" s="1"/>
     </row>
-    <row r="668" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="668" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1">
         <v>665</v>
@@ -72843,7 +72829,7 @@
       <c r="BF668" s="1"/>
       <c r="BG668" s="1"/>
     </row>
-    <row r="669" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="669" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1">
         <v>666</v>
@@ -72946,7 +72932,7 @@
       <c r="BF669" s="1"/>
       <c r="BG669" s="1"/>
     </row>
-    <row r="670" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="670" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1">
         <v>667</v>
@@ -73049,7 +73035,7 @@
       <c r="BF670" s="1"/>
       <c r="BG670" s="1"/>
     </row>
-    <row r="671" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="671" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1">
         <v>668</v>
@@ -73152,7 +73138,7 @@
       <c r="BF671" s="1"/>
       <c r="BG671" s="1"/>
     </row>
-    <row r="672" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="672" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1">
         <v>669</v>
@@ -73253,7 +73239,7 @@
       <c r="BF672" s="1"/>
       <c r="BG672" s="1"/>
     </row>
-    <row r="673" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="673" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1">
         <v>670</v>
@@ -73354,7 +73340,7 @@
       <c r="BF673" s="1"/>
       <c r="BG673" s="1"/>
     </row>
-    <row r="674" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="674" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1">
         <v>671</v>
@@ -73457,7 +73443,7 @@
       <c r="BF674" s="1"/>
       <c r="BG674" s="1"/>
     </row>
-    <row r="675" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="675" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1">
         <v>672</v>
@@ -73560,7 +73546,7 @@
       <c r="BF675" s="1"/>
       <c r="BG675" s="1"/>
     </row>
-    <row r="676" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="676" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1">
         <v>673</v>
@@ -73663,7 +73649,7 @@
       <c r="BF676" s="1"/>
       <c r="BG676" s="1"/>
     </row>
-    <row r="677" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="677" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1">
         <v>674</v>
@@ -73766,7 +73752,7 @@
       <c r="BF677" s="1"/>
       <c r="BG677" s="1"/>
     </row>
-    <row r="678" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="678" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1">
         <v>675</v>
@@ -73867,7 +73853,7 @@
       <c r="BF678" s="1"/>
       <c r="BG678" s="1"/>
     </row>
-    <row r="679" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="679" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1">
         <v>676</v>
@@ -73966,7 +73952,7 @@
       <c r="BF679" s="1"/>
       <c r="BG679" s="1"/>
     </row>
-    <row r="680" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="680" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1">
         <v>677</v>
@@ -74065,7 +74051,7 @@
       <c r="BF680" s="1"/>
       <c r="BG680" s="1"/>
     </row>
-    <row r="681" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="681" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1">
         <v>678</v>
@@ -74164,7 +74150,7 @@
       <c r="BF681" s="1"/>
       <c r="BG681" s="1"/>
     </row>
-    <row r="682" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="682" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1">
         <v>679</v>
@@ -74263,7 +74249,7 @@
       <c r="BF682" s="1"/>
       <c r="BG682" s="1"/>
     </row>
-    <row r="683" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="683" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1">
         <v>680</v>
@@ -74362,7 +74348,7 @@
       <c r="BF683" s="1"/>
       <c r="BG683" s="1"/>
     </row>
-    <row r="684" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="684" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1">
         <v>681</v>
@@ -74459,7 +74445,7 @@
       <c r="BF684" s="1"/>
       <c r="BG684" s="1"/>
     </row>
-    <row r="685" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="685" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1">
         <v>682</v>
@@ -74558,7 +74544,7 @@
       <c r="BF685" s="1"/>
       <c r="BG685" s="1"/>
     </row>
-    <row r="686" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="686" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1">
         <v>683</v>
@@ -74661,7 +74647,7 @@
       <c r="BF686" s="1"/>
       <c r="BG686" s="1"/>
     </row>
-    <row r="687" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="687" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1">
         <v>684</v>
@@ -74764,7 +74750,7 @@
       <c r="BF687" s="1"/>
       <c r="BG687" s="1"/>
     </row>
-    <row r="688" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="688" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1">
         <v>685</v>
@@ -74867,7 +74853,7 @@
       <c r="BF688" s="1"/>
       <c r="BG688" s="1"/>
     </row>
-    <row r="689" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="689" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1">
         <v>686</v>
@@ -74970,7 +74956,7 @@
       <c r="BF689" s="1"/>
       <c r="BG689" s="1"/>
     </row>
-    <row r="690" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="690" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1">
         <v>687</v>
@@ -75071,7 +75057,7 @@
       <c r="BF690" s="1"/>
       <c r="BG690" s="1"/>
     </row>
-    <row r="691" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="691" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1">
         <v>688</v>
@@ -75172,7 +75158,7 @@
       <c r="BF691" s="1"/>
       <c r="BG691" s="1"/>
     </row>
-    <row r="692" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="692" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1">
         <v>689</v>
@@ -75275,7 +75261,7 @@
       <c r="BF692" s="1"/>
       <c r="BG692" s="1"/>
     </row>
-    <row r="693" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="693" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1">
         <v>690</v>
@@ -75378,7 +75364,7 @@
       <c r="BF693" s="1"/>
       <c r="BG693" s="1"/>
     </row>
-    <row r="694" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="694" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1">
         <v>691</v>
@@ -75481,7 +75467,7 @@
       <c r="BF694" s="1"/>
       <c r="BG694" s="1"/>
     </row>
-    <row r="695" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="695" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1">
         <v>692</v>
@@ -75584,7 +75570,7 @@
       <c r="BF695" s="1"/>
       <c r="BG695" s="1"/>
     </row>
-    <row r="696" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="696" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1">
         <v>693</v>
@@ -75685,7 +75671,7 @@
       <c r="BF696" s="1"/>
       <c r="BG696" s="1"/>
     </row>
-    <row r="697" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="697" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1">
         <v>694</v>
@@ -75786,7 +75772,7 @@
       <c r="BF697" s="1"/>
       <c r="BG697" s="1"/>
     </row>
-    <row r="698" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="698" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1">
         <v>695</v>
@@ -75889,7 +75875,7 @@
       <c r="BF698" s="1"/>
       <c r="BG698" s="1"/>
     </row>
-    <row r="699" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="699" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1">
         <v>696</v>
@@ -75992,7 +75978,7 @@
       <c r="BF699" s="1"/>
       <c r="BG699" s="1"/>
     </row>
-    <row r="700" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="700" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1">
         <v>697</v>
@@ -76095,7 +76081,7 @@
       <c r="BF700" s="1"/>
       <c r="BG700" s="1"/>
     </row>
-    <row r="701" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="701" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1">
         <v>698</v>
@@ -76198,7 +76184,7 @@
       <c r="BF701" s="1"/>
       <c r="BG701" s="1"/>
     </row>
-    <row r="702" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="702" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1">
         <v>699</v>
@@ -76299,7 +76285,7 @@
       <c r="BF702" s="1"/>
       <c r="BG702" s="1"/>
     </row>
-    <row r="703" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="703" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1">
         <v>700</v>
@@ -76400,7 +76386,7 @@
       <c r="BF703" s="1"/>
       <c r="BG703" s="1"/>
     </row>
-    <row r="704" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="704" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1">
         <v>701</v>
@@ -76503,7 +76489,7 @@
       <c r="BF704" s="1"/>
       <c r="BG704" s="1"/>
     </row>
-    <row r="705" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="705" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1">
         <v>702</v>
@@ -76606,7 +76592,7 @@
       <c r="BF705" s="1"/>
       <c r="BG705" s="1"/>
     </row>
-    <row r="706" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="706" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1">
         <v>703</v>
@@ -76709,7 +76695,7 @@
       <c r="BF706" s="1"/>
       <c r="BG706" s="1"/>
     </row>
-    <row r="707" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="707" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1">
         <v>704</v>
@@ -76812,7 +76798,7 @@
       <c r="BF707" s="1"/>
       <c r="BG707" s="1"/>
     </row>
-    <row r="708" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="708" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1">
         <v>705</v>
@@ -76913,7 +76899,7 @@
       <c r="BF708" s="1"/>
       <c r="BG708" s="1"/>
     </row>
-    <row r="709" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="709" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1">
         <v>706</v>
@@ -77012,7 +76998,7 @@
       <c r="BF709" s="1"/>
       <c r="BG709" s="1"/>
     </row>
-    <row r="710" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="710" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1">
         <v>707</v>
@@ -77111,7 +77097,7 @@
       <c r="BF710" s="1"/>
       <c r="BG710" s="1"/>
     </row>
-    <row r="711" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="711" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1">
         <v>708</v>
@@ -77210,7 +77196,7 @@
       <c r="BF711" s="1"/>
       <c r="BG711" s="1"/>
     </row>
-    <row r="712" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="712" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1">
         <v>709</v>
@@ -77309,7 +77295,7 @@
       <c r="BF712" s="1"/>
       <c r="BG712" s="1"/>
     </row>
-    <row r="713" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="713" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1">
         <v>710</v>
@@ -77408,7 +77394,7 @@
       <c r="BF713" s="1"/>
       <c r="BG713" s="1"/>
     </row>
-    <row r="714" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="714" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1">
         <v>711</v>
@@ -77505,7 +77491,7 @@
       <c r="BF714" s="1"/>
       <c r="BG714" s="1"/>
     </row>
-    <row r="715" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="715" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1">
         <v>712</v>
@@ -77606,7 +77592,7 @@
       <c r="BF715" s="1"/>
       <c r="BG715" s="1"/>
     </row>
-    <row r="716" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="716" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1">
         <v>713</v>
@@ -77709,7 +77695,7 @@
       <c r="BF716" s="1"/>
       <c r="BG716" s="1"/>
     </row>
-    <row r="717" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="717" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1">
         <v>714</v>
@@ -77812,7 +77798,7 @@
       <c r="BF717" s="1"/>
       <c r="BG717" s="1"/>
     </row>
-    <row r="718" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="718" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1">
         <v>715</v>
@@ -77915,7 +77901,7 @@
       <c r="BF718" s="1"/>
       <c r="BG718" s="1"/>
     </row>
-    <row r="719" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="719" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1">
         <v>716</v>
@@ -78018,7 +78004,7 @@
       <c r="BF719" s="1"/>
       <c r="BG719" s="1"/>
     </row>
-    <row r="720" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="720" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1">
         <v>717</v>
@@ -78119,7 +78105,7 @@
       <c r="BF720" s="1"/>
       <c r="BG720" s="1"/>
     </row>
-    <row r="721" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="721" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1">
         <v>718</v>
@@ -78220,7 +78206,7 @@
       <c r="BF721" s="1"/>
       <c r="BG721" s="1"/>
     </row>
-    <row r="722" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="722" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1">
         <v>719</v>
@@ -78323,7 +78309,7 @@
       <c r="BF722" s="1"/>
       <c r="BG722" s="1"/>
     </row>
-    <row r="723" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="723" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1">
         <v>720</v>
@@ -78426,7 +78412,7 @@
       <c r="BF723" s="1"/>
       <c r="BG723" s="1"/>
     </row>
-    <row r="724" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="724" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1">
         <v>721</v>
@@ -78529,7 +78515,7 @@
       <c r="BF724" s="1"/>
       <c r="BG724" s="1"/>
     </row>
-    <row r="725" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="725" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1">
         <v>722</v>
@@ -78632,7 +78618,7 @@
       <c r="BF725" s="1"/>
       <c r="BG725" s="1"/>
     </row>
-    <row r="726" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="726" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1">
         <v>723</v>
@@ -78733,7 +78719,7 @@
       <c r="BF726" s="1"/>
       <c r="BG726" s="1"/>
     </row>
-    <row r="727" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="727" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1">
         <v>724</v>
@@ -78834,7 +78820,7 @@
       <c r="BF727" s="1"/>
       <c r="BG727" s="1"/>
     </row>
-    <row r="728" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="728" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1">
         <v>725</v>
@@ -78937,7 +78923,7 @@
       <c r="BF728" s="1"/>
       <c r="BG728" s="1"/>
     </row>
-    <row r="729" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="729" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1">
         <v>726</v>
@@ -79040,7 +79026,7 @@
       <c r="BF729" s="1"/>
       <c r="BG729" s="1"/>
     </row>
-    <row r="730" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="730" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1">
         <v>727</v>
@@ -79143,7 +79129,7 @@
       <c r="BF730" s="1"/>
       <c r="BG730" s="1"/>
     </row>
-    <row r="731" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="731" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1">
         <v>728</v>
@@ -79246,7 +79232,7 @@
       <c r="BF731" s="1"/>
       <c r="BG731" s="1"/>
     </row>
-    <row r="732" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="732" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1">
         <v>729</v>
@@ -79347,7 +79333,7 @@
       <c r="BF732" s="1"/>
       <c r="BG732" s="1"/>
     </row>
-    <row r="733" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="733" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1">
         <v>730</v>
@@ -79448,7 +79434,7 @@
       <c r="BF733" s="1"/>
       <c r="BG733" s="1"/>
     </row>
-    <row r="734" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="734" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1">
         <v>731</v>
@@ -79551,7 +79537,7 @@
       <c r="BF734" s="1"/>
       <c r="BG734" s="1"/>
     </row>
-    <row r="735" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="735" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1">
         <v>732</v>
@@ -79654,7 +79640,7 @@
       <c r="BF735" s="1"/>
       <c r="BG735" s="1"/>
     </row>
-    <row r="736" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="736" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1">
         <v>733</v>
@@ -79757,7 +79743,7 @@
       <c r="BF736" s="1"/>
       <c r="BG736" s="1"/>
     </row>
-    <row r="737" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="737" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1">
         <v>734</v>
@@ -79860,7 +79846,7 @@
       <c r="BF737" s="1"/>
       <c r="BG737" s="1"/>
     </row>
-    <row r="738" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="738" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1">
         <v>735</v>
@@ -79961,7 +79947,7 @@
       <c r="BF738" s="1"/>
       <c r="BG738" s="1"/>
     </row>
-    <row r="739" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="739" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1">
         <v>736</v>
@@ -80060,7 +80046,7 @@
       <c r="BF739" s="1"/>
       <c r="BG739" s="1"/>
     </row>
-    <row r="740" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="740" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1">
         <v>737</v>
@@ -80159,7 +80145,7 @@
       <c r="BF740" s="1"/>
       <c r="BG740" s="1"/>
     </row>
-    <row r="741" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="741" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1">
         <v>738</v>
@@ -80258,7 +80244,7 @@
       <c r="BF741" s="1"/>
       <c r="BG741" s="1"/>
     </row>
-    <row r="742" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="742" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1">
         <v>739</v>
@@ -80357,7 +80343,7 @@
       <c r="BF742" s="1"/>
       <c r="BG742" s="1"/>
     </row>
-    <row r="743" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="743" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1">
         <v>740</v>
@@ -80456,7 +80442,7 @@
       <c r="BF743" s="1"/>
       <c r="BG743" s="1"/>
     </row>
-    <row r="744" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="744" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1">
         <v>741</v>
@@ -80553,7 +80539,7 @@
       <c r="BF744" s="1"/>
       <c r="BG744" s="1"/>
     </row>
-    <row r="745" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="745" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1">
         <v>742</v>
@@ -80652,7 +80638,7 @@
       <c r="BF745" s="1"/>
       <c r="BG745" s="1"/>
     </row>
-    <row r="746" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="746" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1">
         <v>743</v>
@@ -80753,7 +80739,7 @@
       <c r="BF746" s="1"/>
       <c r="BG746" s="1"/>
     </row>
-    <row r="747" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="747" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1">
         <v>744</v>
@@ -80854,7 +80840,7 @@
       <c r="BF747" s="1"/>
       <c r="BG747" s="1"/>
     </row>
-    <row r="748" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="748" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1">
         <v>745</v>
@@ -80955,7 +80941,7 @@
       <c r="BF748" s="1"/>
       <c r="BG748" s="1"/>
     </row>
-    <row r="749" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="749" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1">
         <v>746</v>
@@ -81056,7 +81042,7 @@
       <c r="BF749" s="1"/>
       <c r="BG749" s="1"/>
     </row>
-    <row r="750" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="750" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1">
         <v>747</v>
@@ -81155,7 +81141,7 @@
       <c r="BF750" s="1"/>
       <c r="BG750" s="1"/>
     </row>
-    <row r="751" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="751" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1">
         <v>748</v>
@@ -81254,7 +81240,7 @@
       <c r="BF751" s="1"/>
       <c r="BG751" s="1"/>
     </row>
-    <row r="752" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="752" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1">
         <v>749</v>
@@ -81355,7 +81341,7 @@
       <c r="BF752" s="1"/>
       <c r="BG752" s="1"/>
     </row>
-    <row r="753" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="753" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1">
         <v>750</v>
@@ -81456,7 +81442,7 @@
       <c r="BF753" s="1"/>
       <c r="BG753" s="1"/>
     </row>
-    <row r="754" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="754" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1">
         <v>751</v>
@@ -81557,7 +81543,7 @@
       <c r="BF754" s="1"/>
       <c r="BG754" s="1"/>
     </row>
-    <row r="755" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="755" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1">
         <v>752</v>
@@ -81658,7 +81644,7 @@
       <c r="BF755" s="1"/>
       <c r="BG755" s="1"/>
     </row>
-    <row r="756" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="756" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1">
         <v>753</v>
@@ -81757,7 +81743,7 @@
       <c r="BF756" s="1"/>
       <c r="BG756" s="1"/>
     </row>
-    <row r="757" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="757" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1">
         <v>754</v>
@@ -81856,7 +81842,7 @@
       <c r="BF757" s="1"/>
       <c r="BG757" s="1"/>
     </row>
-    <row r="758" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="758" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1">
         <v>755</v>
@@ -81957,7 +81943,7 @@
       <c r="BF758" s="1"/>
       <c r="BG758" s="1"/>
     </row>
-    <row r="759" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="759" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1">
         <v>756</v>
@@ -82058,7 +82044,7 @@
       <c r="BF759" s="1"/>
       <c r="BG759" s="1"/>
     </row>
-    <row r="760" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="760" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1">
         <v>757</v>
@@ -82159,7 +82145,7 @@
       <c r="BF760" s="1"/>
       <c r="BG760" s="1"/>
     </row>
-    <row r="761" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="761" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1">
         <v>758</v>
@@ -82260,7 +82246,7 @@
       <c r="BF761" s="1"/>
       <c r="BG761" s="1"/>
     </row>
-    <row r="762" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="762" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1">
         <v>759</v>
@@ -82359,7 +82345,7 @@
       <c r="BF762" s="1"/>
       <c r="BG762" s="1"/>
     </row>
-    <row r="763" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="763" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1">
         <v>760</v>
@@ -82458,7 +82444,7 @@
       <c r="BF763" s="1"/>
       <c r="BG763" s="1"/>
     </row>
-    <row r="764" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="764" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1">
         <v>761</v>
@@ -82559,7 +82545,7 @@
       <c r="BF764" s="1"/>
       <c r="BG764" s="1"/>
     </row>
-    <row r="765" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="765" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1">
         <v>762</v>
@@ -82660,7 +82646,7 @@
       <c r="BF765" s="1"/>
       <c r="BG765" s="1"/>
     </row>
-    <row r="766" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="766" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1">
         <v>763</v>
@@ -82761,7 +82747,7 @@
       <c r="BF766" s="1"/>
       <c r="BG766" s="1"/>
     </row>
-    <row r="767" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="767" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1">
         <v>764</v>
@@ -82862,7 +82848,7 @@
       <c r="BF767" s="1"/>
       <c r="BG767" s="1"/>
     </row>
-    <row r="768" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="768" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1">
         <v>765</v>
@@ -82961,7 +82947,7 @@
       <c r="BF768" s="1"/>
       <c r="BG768" s="1"/>
     </row>
-    <row r="769" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="769" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1">
         <v>766</v>
@@ -83058,7 +83044,7 @@
       <c r="BF769" s="1"/>
       <c r="BG769" s="1"/>
     </row>
-    <row r="770" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="770" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1">
         <v>767</v>
@@ -83155,7 +83141,7 @@
       <c r="BF770" s="1"/>
       <c r="BG770" s="1"/>
     </row>
-    <row r="771" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="771" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1">
         <v>768</v>
@@ -83252,7 +83238,7 @@
       <c r="BF771" s="1"/>
       <c r="BG771" s="1"/>
     </row>
-    <row r="772" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="772" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1">
         <v>769</v>
@@ -83349,7 +83335,7 @@
       <c r="BF772" s="1"/>
       <c r="BG772" s="1"/>
     </row>
-    <row r="773" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="773" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1">
         <v>770</v>
@@ -83446,7 +83432,7 @@
       <c r="BF773" s="1"/>
       <c r="BG773" s="1"/>
     </row>
-    <row r="774" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="774" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1">
         <v>771</v>
@@ -83541,7 +83527,7 @@
       <c r="BF774" s="1"/>
       <c r="BG774" s="1"/>
     </row>
-    <row r="775" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="775" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1">
         <v>772</v>
@@ -83642,7 +83628,7 @@
       <c r="BF775" s="1"/>
       <c r="BG775" s="1"/>
     </row>
-    <row r="776" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="776" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1">
         <v>773</v>
@@ -83745,7 +83731,7 @@
       <c r="BF776" s="1"/>
       <c r="BG776" s="1"/>
     </row>
-    <row r="777" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="777" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1">
         <v>774</v>
@@ -83848,7 +83834,7 @@
       <c r="BF777" s="1"/>
       <c r="BG777" s="1"/>
     </row>
-    <row r="778" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="778" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1">
         <v>775</v>
@@ -83951,7 +83937,7 @@
       <c r="BF778" s="1"/>
       <c r="BG778" s="1"/>
     </row>
-    <row r="779" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="779" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1">
         <v>776</v>
@@ -84054,7 +84040,7 @@
       <c r="BF779" s="1"/>
       <c r="BG779" s="1"/>
     </row>
-    <row r="780" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="780" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1">
         <v>777</v>
@@ -84155,7 +84141,7 @@
       <c r="BF780" s="1"/>
       <c r="BG780" s="1"/>
     </row>
-    <row r="781" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="781" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1">
         <v>778</v>
@@ -84256,7 +84242,7 @@
       <c r="BF781" s="1"/>
       <c r="BG781" s="1"/>
     </row>
-    <row r="782" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="782" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1">
         <v>779</v>
@@ -84359,7 +84345,7 @@
       <c r="BF782" s="1"/>
       <c r="BG782" s="1"/>
     </row>
-    <row r="783" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="783" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1">
         <v>780</v>
@@ -84462,7 +84448,7 @@
       <c r="BF783" s="1"/>
       <c r="BG783" s="1"/>
     </row>
-    <row r="784" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="784" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1">
         <v>781</v>
@@ -84565,7 +84551,7 @@
       <c r="BF784" s="1"/>
       <c r="BG784" s="1"/>
     </row>
-    <row r="785" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="785" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1">
         <v>782</v>
@@ -84668,7 +84654,7 @@
       <c r="BF785" s="1"/>
       <c r="BG785" s="1"/>
     </row>
-    <row r="786" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="786" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1">
         <v>783</v>
@@ -84769,7 +84755,7 @@
       <c r="BF786" s="1"/>
       <c r="BG786" s="1"/>
     </row>
-    <row r="787" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="787" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1">
         <v>784</v>
@@ -84870,7 +84856,7 @@
       <c r="BF787" s="1"/>
       <c r="BG787" s="1"/>
     </row>
-    <row r="788" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="788" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1">
         <v>785</v>
@@ -84973,7 +84959,7 @@
       <c r="BF788" s="1"/>
       <c r="BG788" s="1"/>
     </row>
-    <row r="789" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="789" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1">
         <v>786</v>
@@ -85076,7 +85062,7 @@
       <c r="BF789" s="1"/>
       <c r="BG789" s="1"/>
     </row>
-    <row r="790" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="790" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1">
         <v>787</v>
@@ -85179,7 +85165,7 @@
       <c r="BF790" s="1"/>
       <c r="BG790" s="1"/>
     </row>
-    <row r="791" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="791" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1">
         <v>788</v>
@@ -85282,7 +85268,7 @@
       <c r="BF791" s="1"/>
       <c r="BG791" s="1"/>
     </row>
-    <row r="792" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="792" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1">
         <v>789</v>
@@ -85383,7 +85369,7 @@
       <c r="BF792" s="1"/>
       <c r="BG792" s="1"/>
     </row>
-    <row r="793" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="793" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1">
         <v>790</v>
@@ -85484,7 +85470,7 @@
       <c r="BF793" s="1"/>
       <c r="BG793" s="1"/>
     </row>
-    <row r="794" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="794" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1">
         <v>791</v>
@@ -85587,7 +85573,7 @@
       <c r="BF794" s="1"/>
       <c r="BG794" s="1"/>
     </row>
-    <row r="795" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="795" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1">
         <v>792</v>
@@ -85690,7 +85676,7 @@
       <c r="BF795" s="1"/>
       <c r="BG795" s="1"/>
     </row>
-    <row r="796" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="796" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1">
         <v>793</v>
@@ -85793,7 +85779,7 @@
       <c r="BF796" s="1"/>
       <c r="BG796" s="1"/>
     </row>
-    <row r="797" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="797" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1">
         <v>794</v>
@@ -85896,7 +85882,7 @@
       <c r="BF797" s="1"/>
       <c r="BG797" s="1"/>
     </row>
-    <row r="798" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="798" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1">
         <v>795</v>
@@ -85997,7 +85983,7 @@
       <c r="BF798" s="1"/>
       <c r="BG798" s="1"/>
     </row>
-    <row r="799" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="799" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1">
         <v>796</v>
@@ -86096,7 +86082,7 @@
       <c r="BF799" s="1"/>
       <c r="BG799" s="1"/>
     </row>
-    <row r="800" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="800" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1">
         <v>797</v>
@@ -86195,7 +86181,7 @@
       <c r="BF800" s="1"/>
       <c r="BG800" s="1"/>
     </row>
-    <row r="801" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="801" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1">
         <v>798</v>
@@ -86294,7 +86280,7 @@
       <c r="BF801" s="1"/>
       <c r="BG801" s="1"/>
     </row>
-    <row r="802" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="802" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1">
         <v>799</v>
@@ -86393,7 +86379,7 @@
       <c r="BF802" s="1"/>
       <c r="BG802" s="1"/>
     </row>
-    <row r="803" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="803" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1">
         <v>800</v>
@@ -86492,7 +86478,7 @@
       <c r="BF803" s="1"/>
       <c r="BG803" s="1"/>
     </row>
-    <row r="804" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="804" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1">
         <v>801</v>
@@ -86589,7 +86575,7 @@
       <c r="BF804" s="1"/>
       <c r="BG804" s="1"/>
     </row>
-    <row r="805" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="805" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1">
         <v>802</v>
@@ -86666,7 +86652,7 @@
       <c r="BF805" s="1"/>
       <c r="BG805" s="1"/>
     </row>
-    <row r="806" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="806" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1">
         <v>803</v>
@@ -86743,7 +86729,7 @@
       <c r="BF806" s="1"/>
       <c r="BG806" s="1"/>
     </row>
-    <row r="807" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="807" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1">
         <v>804</v>
@@ -86820,7 +86806,7 @@
       <c r="BF807" s="1"/>
       <c r="BG807" s="1"/>
     </row>
-    <row r="808" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="808" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1">
         <v>805</v>
@@ -86897,7 +86883,7 @@
       <c r="BF808" s="1"/>
       <c r="BG808" s="1"/>
     </row>
-    <row r="809" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="809" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1">
         <v>806</v>
@@ -86974,7 +86960,7 @@
       <c r="BF809" s="1"/>
       <c r="BG809" s="1"/>
     </row>
-    <row r="810" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="810" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1">
         <v>807</v>
@@ -87051,7 +87037,7 @@
       <c r="BF810" s="1"/>
       <c r="BG810" s="1"/>
     </row>
-    <row r="811" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="811" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1">
         <v>808</v>
@@ -87128,7 +87114,7 @@
       <c r="BF811" s="1"/>
       <c r="BG811" s="1"/>
     </row>
-    <row r="812" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="812" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1">
         <v>809</v>
@@ -87205,7 +87191,7 @@
       <c r="BF812" s="1"/>
       <c r="BG812" s="1"/>
     </row>
-    <row r="813" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="813" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1">
         <v>810</v>
@@ -87282,7 +87268,7 @@
       <c r="BF813" s="1"/>
       <c r="BG813" s="1"/>
     </row>
-    <row r="814" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="814" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1">
         <v>811</v>
@@ -87359,7 +87345,7 @@
       <c r="BF814" s="1"/>
       <c r="BG814" s="1"/>
     </row>
-    <row r="815" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="815" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1">
         <v>812</v>
@@ -87436,7 +87422,7 @@
       <c r="BF815" s="1"/>
       <c r="BG815" s="1"/>
     </row>
-    <row r="816" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="816" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1">
         <v>813</v>
@@ -87513,7 +87499,7 @@
       <c r="BF816" s="1"/>
       <c r="BG816" s="1"/>
     </row>
-    <row r="817" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="817" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1">
         <v>814</v>
@@ -87590,7 +87576,7 @@
       <c r="BF817" s="1"/>
       <c r="BG817" s="1"/>
     </row>
-    <row r="818" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="818" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1">
         <v>815</v>
@@ -87667,7 +87653,7 @@
       <c r="BF818" s="1"/>
       <c r="BG818" s="1"/>
     </row>
-    <row r="819" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="819" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1">
         <v>816</v>
@@ -87744,7 +87730,7 @@
       <c r="BF819" s="1"/>
       <c r="BG819" s="1"/>
     </row>
-    <row r="820" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="820" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1">
         <v>817</v>
@@ -87821,7 +87807,7 @@
       <c r="BF820" s="1"/>
       <c r="BG820" s="1"/>
     </row>
-    <row r="821" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="821" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1">
         <v>818</v>
@@ -87898,7 +87884,7 @@
       <c r="BF821" s="1"/>
       <c r="BG821" s="1"/>
     </row>
-    <row r="822" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="822" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1">
         <v>819</v>
@@ -87975,7 +87961,7 @@
       <c r="BF822" s="1"/>
       <c r="BG822" s="1"/>
     </row>
-    <row r="823" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="823" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1">
         <v>820</v>
@@ -88052,7 +88038,7 @@
       <c r="BF823" s="1"/>
       <c r="BG823" s="1"/>
     </row>
-    <row r="824" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="824" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1">
         <v>821</v>
@@ -88129,7 +88115,7 @@
       <c r="BF824" s="1"/>
       <c r="BG824" s="1"/>
     </row>
-    <row r="825" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="825" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1">
         <v>822</v>
@@ -88206,7 +88192,7 @@
       <c r="BF825" s="1"/>
       <c r="BG825" s="1"/>
     </row>
-    <row r="826" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="826" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1">
         <v>823</v>
@@ -88283,7 +88269,7 @@
       <c r="BF826" s="1"/>
       <c r="BG826" s="1"/>
     </row>
-    <row r="827" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="827" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1">
         <v>824</v>
@@ -88360,7 +88346,7 @@
       <c r="BF827" s="1"/>
       <c r="BG827" s="1"/>
     </row>
-    <row r="828" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="828" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1">
         <v>825</v>
@@ -88437,7 +88423,7 @@
       <c r="BF828" s="1"/>
       <c r="BG828" s="1"/>
     </row>
-    <row r="829" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="829" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1">
         <v>826</v>
@@ -88514,7 +88500,7 @@
       <c r="BF829" s="1"/>
       <c r="BG829" s="1"/>
     </row>
-    <row r="830" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="830" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1">
         <v>827</v>
@@ -88591,7 +88577,7 @@
       <c r="BF830" s="1"/>
       <c r="BG830" s="1"/>
     </row>
-    <row r="831" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="831" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1">
         <v>828</v>
@@ -88668,7 +88654,7 @@
       <c r="BF831" s="1"/>
       <c r="BG831" s="1"/>
     </row>
-    <row r="832" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="832" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1">
         <v>829</v>
@@ -88745,7 +88731,7 @@
       <c r="BF832" s="1"/>
       <c r="BG832" s="1"/>
     </row>
-    <row r="833" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="833" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1">
         <v>830</v>
@@ -88822,7 +88808,7 @@
       <c r="BF833" s="1"/>
       <c r="BG833" s="1"/>
     </row>
-    <row r="834" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="834" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1">
         <v>831</v>
@@ -88899,7 +88885,7 @@
       <c r="BF834" s="1"/>
       <c r="BG834" s="1"/>
     </row>
-    <row r="835" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="835" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1">
         <v>832</v>
@@ -88976,7 +88962,7 @@
       <c r="BF835" s="1"/>
       <c r="BG835" s="1"/>
     </row>
-    <row r="836" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="836" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1">
         <v>833</v>
@@ -89053,7 +89039,7 @@
       <c r="BF836" s="1"/>
       <c r="BG836" s="1"/>
     </row>
-    <row r="837" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="837" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1">
         <v>834</v>
@@ -89130,7 +89116,7 @@
       <c r="BF837" s="1"/>
       <c r="BG837" s="1"/>
     </row>
-    <row r="838" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="838" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1">
         <v>835</v>
@@ -89207,7 +89193,7 @@
       <c r="BF838" s="1"/>
       <c r="BG838" s="1"/>
     </row>
-    <row r="839" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="839" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1">
         <v>836</v>
@@ -89284,7 +89270,7 @@
       <c r="BF839" s="1"/>
       <c r="BG839" s="1"/>
     </row>
-    <row r="840" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="840" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1">
         <v>837</v>
@@ -89361,7 +89347,7 @@
       <c r="BF840" s="1"/>
       <c r="BG840" s="1"/>
     </row>
-    <row r="841" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="841" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1">
         <v>838</v>
@@ -89438,7 +89424,7 @@
       <c r="BF841" s="1"/>
       <c r="BG841" s="1"/>
     </row>
-    <row r="842" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="842" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1">
         <v>839</v>
@@ -89515,7 +89501,7 @@
       <c r="BF842" s="1"/>
       <c r="BG842" s="1"/>
     </row>
-    <row r="843" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="843" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1">
         <v>840</v>
@@ -89592,7 +89578,7 @@
       <c r="BF843" s="1"/>
       <c r="BG843" s="1"/>
     </row>
-    <row r="844" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="844" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1">
         <v>841</v>
@@ -89669,7 +89655,7 @@
       <c r="BF844" s="1"/>
       <c r="BG844" s="1"/>
     </row>
-    <row r="845" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="845" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1">
         <v>842</v>
@@ -89746,7 +89732,7 @@
       <c r="BF845" s="1"/>
       <c r="BG845" s="1"/>
     </row>
-    <row r="846" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="846" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1">
         <v>843</v>
@@ -89823,7 +89809,7 @@
       <c r="BF846" s="1"/>
       <c r="BG846" s="1"/>
     </row>
-    <row r="847" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="847" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1">
         <v>844</v>
@@ -89900,7 +89886,7 @@
       <c r="BF847" s="1"/>
       <c r="BG847" s="1"/>
     </row>
-    <row r="848" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="848" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1">
         <v>845</v>
@@ -89977,7 +89963,7 @@
       <c r="BF848" s="1"/>
       <c r="BG848" s="1"/>
     </row>
-    <row r="849" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="849" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1">
         <v>846</v>
@@ -90054,7 +90040,7 @@
       <c r="BF849" s="1"/>
       <c r="BG849" s="1"/>
     </row>
-    <row r="850" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="850" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1">
         <v>847</v>
@@ -90131,7 +90117,7 @@
       <c r="BF850" s="1"/>
       <c r="BG850" s="1"/>
     </row>
-    <row r="851" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="851" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1">
         <v>848</v>
@@ -90208,7 +90194,7 @@
       <c r="BF851" s="1"/>
       <c r="BG851" s="1"/>
     </row>
-    <row r="852" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="852" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1">
         <v>849</v>
@@ -90285,7 +90271,7 @@
       <c r="BF852" s="1"/>
       <c r="BG852" s="1"/>
     </row>
-    <row r="853" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="853" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1">
         <v>850</v>
@@ -90362,7 +90348,7 @@
       <c r="BF853" s="1"/>
       <c r="BG853" s="1"/>
     </row>
-    <row r="854" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="854" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1">
         <v>851</v>
@@ -90439,7 +90425,7 @@
       <c r="BF854" s="1"/>
       <c r="BG854" s="1"/>
     </row>
-    <row r="855" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="855" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1">
         <v>852</v>
@@ -90516,7 +90502,7 @@
       <c r="BF855" s="1"/>
       <c r="BG855" s="1"/>
     </row>
-    <row r="856" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="856" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1">
         <v>853</v>
@@ -90593,7 +90579,7 @@
       <c r="BF856" s="1"/>
       <c r="BG856" s="1"/>
     </row>
-    <row r="857" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="857" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1">
         <v>854</v>
@@ -90670,7 +90656,7 @@
       <c r="BF857" s="1"/>
       <c r="BG857" s="1"/>
     </row>
-    <row r="858" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="858" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1">
         <v>855</v>
@@ -90747,7 +90733,7 @@
       <c r="BF858" s="1"/>
       <c r="BG858" s="1"/>
     </row>
-    <row r="859" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="859" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1">
         <v>856</v>
@@ -90824,7 +90810,7 @@
       <c r="BF859" s="1"/>
       <c r="BG859" s="1"/>
     </row>
-    <row r="860" spans="1:59" x14ac:dyDescent="0.15">
+    <row r="860" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1">
         <v>857</v>
@@ -90902,8 +90888,7 @@
       <c r="BG860" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100"/>
 </worksheet>
 </file>